--- a/sabah/Chapter01/Chapter01.xlsx
+++ b/sabah/Chapter01/Chapter01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exmpl1.2.1-exact" sheetId="1" r:id="rId1"/>
@@ -4215,11 +4215,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1233813024"/>
-        <c:axId val="1233804864"/>
+        <c:axId val="-1424353168"/>
+        <c:axId val="-1424350992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1233813024"/>
+        <c:axId val="-1424353168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,7 +4230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1233804864"/>
+        <c:crossAx val="-1424350992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +4240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1233804864"/>
+        <c:axId val="-1424350992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
@@ -4252,7 +4252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1233813024"/>
+        <c:crossAx val="-1424353168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9166,6 +9166,71 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>137160</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -16374,7 +16439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -17040,11 +17105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17342,6 +17407,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="6145" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>137160</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>22860</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="6145" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -17349,7 +17442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -18375,7 +18468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>

--- a/sabah/Chapter01/Chapter01.xlsx
+++ b/sabah/Chapter01/Chapter01.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="185">
   <si>
     <r>
       <t>V</t>
@@ -2209,15 +2209,23 @@
       <t>a</t>
     </r>
   </si>
+  <si>
+    <t>vD</t>
+  </si>
+  <si>
+    <t>iD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2775,7 +2783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2883,6 +2891,15 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4215,11 +4232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1424353168"/>
-        <c:axId val="-1424350992"/>
+        <c:axId val="-1750832912"/>
+        <c:axId val="-1794113600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1424353168"/>
+        <c:axId val="-1750832912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,7 +4247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1424350992"/>
+        <c:crossAx val="-1794113600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +4257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1424350992"/>
+        <c:axId val="-1794113600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
@@ -4252,7 +4269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1424353168"/>
+        <c:crossAx val="-1750832912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4276,6 +4293,1147 @@
     <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'P1.1.3-1.1.5'!$I$34:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P1.1.3-1.1.5'!$J$34:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.949593433094285E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6443347521892064E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6607631597690245E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1319366527409099E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1371695375704625E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4616772976802726E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0000194959343309E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8420547988619308E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6813133893643728E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>0.32029439190669523</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>2.1914472398708376</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>14.993834525500707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'P1.1.3-1.1.5'!$I$34:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P1.1.3-1.1.5'!$K$34:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.949593433094285E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0581469443822234E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0727649250935908E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1823751758647181E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8552200233512447E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0961895221934238E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.772378585787237E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0889631773935964E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7684981331087092E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0896334612172773E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7725159859076349E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0910941059893418E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'P1.1.3-1.1.5'!$I$34:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'P1.1.3-1.1.5'!$L$34:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.949593433094285E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.524589605789358E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6443347521892064E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8420424475786924E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6607631597690245E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2033740424362703E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1319366527409099E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1765117387458909E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1371695375704625E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.588656892691798E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4616772976802726E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8231774754874612E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1507052352"/>
+        <c:axId val="-1507050176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1507052352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1507050176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1507050176"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1507052352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9207,23 +10365,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -9231,6 +10376,36 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>376990</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>545432</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>72190</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17106,10 +18281,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17117,7 +18292,11 @@
     <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="3.44140625" customWidth="1"/>
     <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
@@ -17402,6 +18581,250 @@
       <c r="C29" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="30" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="J30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>9.747967165471425E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33" s="2"/>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1.67</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="69">
+        <f>$K$30*(EXP($I34/(J$33*$B$4))+1)</f>
+        <v>1.949593433094285E-8</v>
+      </c>
+      <c r="K34" s="69">
+        <f>$K$30*(EXP($I34/(K$33*$B$4))+1)</f>
+        <v>1.949593433094285E-8</v>
+      </c>
+      <c r="L34" s="69">
+        <f>$K$30*(EXP($I34/(L$33*$B$4))+1)</f>
+        <v>1.949593433094285E-8</v>
+      </c>
+      <c r="M34" s="71"/>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J35" s="69">
+        <f>$K$30*(EXP($I35/(J$33*$B$4))+1)</f>
+        <v>7.6443347521892064E-8</v>
+      </c>
+      <c r="K35" s="69">
+        <f>$K$30*(EXP($I35/(K$33*$B$4))+1)</f>
+        <v>4.0581469443822234E-8</v>
+      </c>
+      <c r="L35" s="69">
+        <f>$K$30*(EXP($I35/(L$33*$B$4))+1)</f>
+        <v>3.524589605789358E-8</v>
+      </c>
+      <c r="M35" s="71"/>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="69">
+        <f>$K$30*(EXP($I36/(J$33*$B$4))+1)</f>
+        <v>4.6607631597690245E-7</v>
+      </c>
+      <c r="K36" s="69">
+        <f>$K$30*(EXP($I36/(K$33*$B$4))+1)</f>
+        <v>1.0727649250935908E-7</v>
+      </c>
+      <c r="L36" s="69">
+        <f>$K$30*(EXP($I36/(L$33*$B$4))+1)</f>
+        <v>7.6443347521892064E-8</v>
+      </c>
+      <c r="M36" s="71"/>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I37" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J37" s="69">
+        <f>$K$30*(EXP($I37/(J$33*$B$4))+1)</f>
+        <v>3.1319366527409099E-6</v>
+      </c>
+      <c r="K37" s="69">
+        <f>$K$30*(EXP($I37/(K$33*$B$4))+1)</f>
+        <v>3.1823751758647181E-7</v>
+      </c>
+      <c r="L37" s="69">
+        <f>$K$30*(EXP($I37/(L$33*$B$4))+1)</f>
+        <v>1.8420424475786924E-7</v>
+      </c>
+      <c r="M37" s="71"/>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I38" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J38" s="69">
+        <f>$K$30*(EXP($I38/(J$33*$B$4))+1)</f>
+        <v>2.1371695375704625E-5</v>
+      </c>
+      <c r="K38" s="69">
+        <f>$K$30*(EXP($I38/(K$33*$B$4))+1)</f>
+        <v>9.8552200233512447E-7</v>
+      </c>
+      <c r="L38" s="69">
+        <f>$K$30*(EXP($I38/(L$33*$B$4))+1)</f>
+        <v>4.6607631597690245E-7</v>
+      </c>
+      <c r="M38" s="71"/>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I39" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="69">
+        <f>$K$30*(EXP($I39/(J$33*$B$4))+1)</f>
+        <v>1.4616772976802726E-4</v>
+      </c>
+      <c r="K39" s="69">
+        <f>$K$30*(EXP($I39/(K$33*$B$4))+1)</f>
+        <v>3.0961895221934238E-6</v>
+      </c>
+      <c r="L39" s="69">
+        <f>$K$30*(EXP($I39/(L$33*$B$4))+1)</f>
+        <v>1.2033740424362703E-6</v>
+      </c>
+      <c r="M39" s="71"/>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I40" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J40" s="69">
+        <f>$K$30*(EXP($I40/(J$33*$B$4))+1)</f>
+        <v>1.0000194959343309E-3</v>
+      </c>
+      <c r="K40" s="69">
+        <f>$K$30*(EXP($I40/(K$33*$B$4))+1)</f>
+        <v>9.772378585787237E-6</v>
+      </c>
+      <c r="L40" s="69">
+        <f>$K$30*(EXP($I40/(L$33*$B$4))+1)</f>
+        <v>3.1319366527409099E-6</v>
+      </c>
+      <c r="M40" s="71"/>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I41" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="J41" s="69">
+        <f>$K$30*(EXP($I41/(J$33*$B$4))+1)</f>
+        <v>6.8420547988619308E-3</v>
+      </c>
+      <c r="K41" s="69">
+        <f>$K$30*(EXP($I41/(K$33*$B$4))+1)</f>
+        <v>3.0889631773935964E-5</v>
+      </c>
+      <c r="L41" s="69">
+        <f>$K$30*(EXP($I41/(L$33*$B$4))+1)</f>
+        <v>8.1765117387458909E-6</v>
+      </c>
+      <c r="M41" s="71"/>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I42" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J42" s="69">
+        <f>$K$30*(EXP($I42/(J$33*$B$4))+1)</f>
+        <v>4.6813133893643728E-2</v>
+      </c>
+      <c r="K42" s="69">
+        <f>$K$30*(EXP($I42/(K$33*$B$4))+1)</f>
+        <v>9.7684981331087092E-5</v>
+      </c>
+      <c r="L42" s="69">
+        <f>$K$30*(EXP($I42/(L$33*$B$4))+1)</f>
+        <v>2.1371695375704625E-5</v>
+      </c>
+      <c r="M42" s="71"/>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I43" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J43" s="70">
+        <f>$K$30*(EXP($I43/(J$33*$B$4))+1)</f>
+        <v>0.32029439190669523</v>
+      </c>
+      <c r="K43" s="69">
+        <f>$K$30*(EXP($I43/(K$33*$B$4))+1)</f>
+        <v>3.0896334612172773E-4</v>
+      </c>
+      <c r="L43" s="69">
+        <f>$K$30*(EXP($I43/(L$33*$B$4))+1)</f>
+        <v>5.588656892691798E-5</v>
+      </c>
+      <c r="M43" s="71"/>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="70">
+        <f>$K$30*(EXP($I44/(J$33*$B$4))+1)</f>
+        <v>2.1914472398708376</v>
+      </c>
+      <c r="K44" s="69">
+        <f>$K$30*(EXP($I44/(K$33*$B$4))+1)</f>
+        <v>9.7725159859076349E-4</v>
+      </c>
+      <c r="L44" s="69">
+        <f>$K$30*(EXP($I44/(L$33*$B$4))+1)</f>
+        <v>1.4616772976802726E-4</v>
+      </c>
+      <c r="M44" s="71"/>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I45" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J45" s="70">
+        <f>$K$30*(EXP($I45/(J$33*$B$4))+1)</f>
+        <v>14.993834525500707</v>
+      </c>
+      <c r="K45" s="69">
+        <f>$K$30*(EXP($I45/(K$33*$B$4))+1)</f>
+        <v>3.0910941059893418E-3</v>
+      </c>
+      <c r="L45" s="69">
+        <f>$K$30*(EXP($I45/(L$33*$B$4))+1)</f>
+        <v>3.8231774754874612E-4</v>
+      </c>
+      <c r="M45" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sabah/Chapter01/Chapter01.xlsx
+++ b/sabah/Chapter01/Chapter01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exmpl1.2.1-exact" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Vsrc">'Exmpl1.2.1-exact'!$J$5</definedName>
     <definedName name="Vt">'Exmpl1.2.1-exact'!$J$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2225,7 +2225,7 @@
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2897,7 +2897,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4231,12 +4231,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1750832912"/>
-        <c:axId val="-1794113600"/>
+        <c:axId val="173859968"/>
+        <c:axId val="173861504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1750832912"/>
+        <c:axId val="173859968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,7 +4248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1794113600"/>
+        <c:crossAx val="173861504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4257,7 +4258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1794113600"/>
+        <c:axId val="173861504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
@@ -4269,7 +4270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1750832912"/>
+        <c:crossAx val="173859968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4675,12 +4676,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1507052352"/>
-        <c:axId val="-1507050176"/>
+        <c:axId val="175912064"/>
+        <c:axId val="175913600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1507052352"/>
+        <c:axId val="175912064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,7 +4739,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1507050176"/>
+        <c:crossAx val="175913600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4747,7 +4749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1507050176"/>
+        <c:axId val="175913600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4799,7 +4801,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1507052352"/>
+        <c:crossAx val="175912064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4880,562 +4882,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5481,15 +4927,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>198120</xdr:colOff>
+          <xdr:colOff>200025</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>845820</xdr:colOff>
+          <xdr:colOff>847725</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5502,7 +4948,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5510,24 +4956,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5542,13 +4970,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5561,7 +4989,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5569,24 +4997,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5634,9 +5044,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -5655,7 +5065,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5663,24 +5073,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5704,9 +5096,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>243840</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5719,7 +5111,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5727,24 +5119,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5840,11 +5214,11 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -5859,7 +5233,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5867,24 +5241,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5897,15 +5253,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>563880</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5918,7 +5274,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5926,24 +5282,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5964,7 +5302,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5977,7 +5315,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5985,17 +5323,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6064,7 +5391,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -6095,7 +5422,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -6120,7 +5447,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -6138,7 +5465,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -6147,7 +5474,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -6180,7 +5507,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1600" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -6349,7 +5676,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -6374,7 +5701,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -6392,7 +5719,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -6442,7 +5769,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6485,7 +5812,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6515,7 +5842,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6778,7 +6105,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6788,7 +6115,7 @@
                           <m:sSupPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -6807,7 +6134,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
@@ -6842,7 +6169,7 @@
                           <m:sSupPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -6865,7 +6192,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6933,7 +6260,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6971,7 +6298,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6993,7 +6320,7 @@
                           <m:dPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -7007,7 +6334,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7066,7 +6393,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7098,7 +6425,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7113,7 +6440,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7402,7 +6729,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -7543,7 +6870,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1600" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -7574,7 +6901,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -7589,7 +6916,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="el-GR" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -7616,7 +6943,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -7647,7 +6974,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -7681,7 +7008,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -7707,7 +7034,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7752,7 +7079,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -8036,7 +7363,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -8054,7 +7381,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -8063,7 +7390,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8096,7 +7423,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8295,7 +7622,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -8313,7 +7640,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -8322,7 +7649,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8355,7 +7682,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8554,7 +7881,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -8572,7 +7899,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -8581,7 +7908,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8614,7 +7941,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8813,7 +8140,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -8831,7 +8158,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -8840,7 +8167,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8873,7 +8200,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -9068,7 +8395,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="ru-RU" sz="1600" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -9085,7 +8412,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
@@ -9115,7 +8442,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="ru-RU" sz="1600" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
@@ -9152,7 +8479,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -9166,7 +8493,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -9209,7 +8536,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -9239,7 +8566,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9254,7 +8581,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -9335,7 +8662,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -9384,7 +8711,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -9427,7 +8754,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -9457,7 +8784,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9472,7 +8799,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -9529,7 +8856,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -9595,7 +8922,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -9614,7 +8941,7 @@
                         <m:fPr>
                           <m:ctrlPr>
                             <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
@@ -9628,7 +8955,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9707,7 +9034,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9764,7 +9091,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9860,7 +9187,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="el-GR" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -9888,7 +9215,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -10335,9 +9662,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>137160</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10350,7 +9677,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -10358,17 +9685,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -10505,7 +9821,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -10558,7 +9874,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10601,7 +9917,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10633,7 +9949,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10648,7 +9964,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10663,7 +9979,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10718,7 +10034,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10763,7 +10079,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11043,7 +10359,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -11074,7 +10390,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -11089,7 +10405,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="el-GR" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -11116,7 +10432,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -11147,7 +10463,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -11181,7 +10497,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -11207,7 +10523,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11252,7 +10568,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11532,7 +10848,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -11585,7 +10901,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11628,7 +10944,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11660,7 +10976,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11675,7 +10991,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11690,7 +11006,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11745,7 +11061,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11790,7 +11106,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -12089,7 +11405,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12117,7 +11433,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12139,7 +11455,7 @@
                           <m:fPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -12149,7 +11465,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
@@ -12179,7 +11495,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
@@ -12343,7 +11659,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -12396,7 +11712,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12439,7 +11755,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12471,7 +11787,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -12486,7 +11802,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12501,7 +11817,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -12556,7 +11872,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -12601,7 +11917,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -12834,7 +12150,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -12865,7 +12181,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -12896,7 +12212,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -13056,7 +12372,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -13085,7 +12401,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13155,7 +12471,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13210,7 +12526,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13253,7 +12569,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13503,7 +12819,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13558,7 +12874,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13601,7 +12917,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13656,7 +12972,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13699,7 +13015,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13921,7 +13237,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -13938,7 +13254,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -13977,7 +13293,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14022,7 +13338,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14079,7 +13395,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14106,7 +13422,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14136,7 +13452,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -14153,7 +13469,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -14163,7 +13479,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14192,7 +13508,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14221,7 +13537,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14257,7 +13573,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -14274,7 +13590,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -14297,7 +13613,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14328,7 +13644,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14363,7 +13679,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14394,7 +13710,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -14533,15 +13849,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>45720</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14554,7 +13870,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14562,24 +13878,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14636,9 +13934,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>160020</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14651,7 +13949,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14659,24 +13957,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14695,9 +13975,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14710,7 +13990,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14718,24 +13998,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14792,15 +14054,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14813,7 +14075,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14821,24 +14083,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14851,15 +14095,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>541020</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14872,7 +14116,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14880,24 +14124,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14912,7 +14138,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
@@ -14931,7 +14157,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14939,24 +14165,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14969,15 +14177,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>594360</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14990,7 +14198,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14998,29 +14206,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -15074,7 +14259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15109,7 +14294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15324,19 +14509,19 @@
       <selection activeCell="G1" sqref="G1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -15347,7 +14532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
@@ -15377,7 +14562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
@@ -15396,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
@@ -15418,7 +14603,7 @@
         <v>3.2006777948325877E-10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -15447,7 +14632,7 @@
         <v>7.0843114794208026E-10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
@@ -15479,7 +14664,7 @@
         <v>1.1796629170510709E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P7" s="2">
         <v>0.04</v>
       </c>
@@ -15492,7 +14677,7 @@
         <v>1.7514454234671828E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P8" s="2">
         <v>0.05</v>
       </c>
@@ -15505,7 +14690,7 @@
         <v>2.44523403466728E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
         <v>14</v>
       </c>
@@ -15527,7 +14712,7 @@
         <v>3.287062232679103E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>1</v>
       </c>
@@ -15550,7 +14735,7 @@
         <v>4.3085184853869498E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>2</v>
       </c>
@@ -15574,7 +14759,7 @@
         <v>5.5479315611904591E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K12">
         <v>3</v>
       </c>
@@ -15598,7 +14783,7 @@
         <v>7.0518087643505954E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -15625,7 +14810,7 @@
         <v>8.8765810588647096E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P14" s="2">
         <v>0.11</v>
       </c>
@@ -15638,7 +14823,7 @@
         <v>1.109072056429062E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P15" s="2">
         <v>0.12</v>
       </c>
@@ -15651,7 +14836,7 @@
         <v>1.3777309879695089E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L16" s="9" t="s">
         <v>25</v>
       </c>
@@ -15671,7 +14856,7 @@
         <v>1.7037159646142861E-8</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>10/2000</f>
         <v>5.0000000000000001E-3</v>
@@ -15688,7 +14873,7 @@
         <v>2.0992591330054607E-8</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P18" s="2">
         <v>0.15</v>
       </c>
@@ -15701,7 +14886,7 @@
         <v>2.5792027171277912E-8</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P19" s="2">
         <v>0.16</v>
       </c>
@@ -15714,7 +14899,7 @@
         <v>3.161555952748305E-8</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P20" s="2">
         <v>0.17</v>
       </c>
@@ -15727,7 +14912,7 @@
         <v>3.8681708597021169E-8</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P21" s="2">
         <v>0.18</v>
       </c>
@@ -15740,7 +14925,7 @@
         <v>4.7255622094682436E-8</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P22" s="2">
         <v>0.19</v>
       </c>
@@ -15753,7 +14938,7 @@
         <v>5.7659024562129056E-8</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P23" s="2">
         <v>0.2</v>
       </c>
@@ -15766,7 +14951,7 @@
         <v>7.0282289647459898E-8</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P24" s="2">
         <v>0.21</v>
       </c>
@@ -15779,7 +14964,7 @@
         <v>8.5599088349917595E-8</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P25" s="2">
         <v>0.22</v>
       </c>
@@ -15792,7 +14977,7 @@
         <v>1.0418416288536714E-7</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P26" s="2">
         <v>0.23</v>
       </c>
@@ -15805,7 +14990,7 @@
         <v>1.2673489311287814E-7</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P27" s="2">
         <v>0.24</v>
       </c>
@@ -15818,7 +15003,7 @@
         <v>1.540974647734861E-7</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P28" s="2">
         <v>0.25</v>
       </c>
@@ -15831,7 +15016,7 @@
         <v>1.8729862146900229E-7</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P29" s="2">
         <v>0.26</v>
       </c>
@@ -15844,7 +15029,7 @@
         <v>2.2758419183105821E-7</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P30" s="2">
         <v>0.27</v>
       </c>
@@ -15857,7 +15042,7 @@
         <v>2.7646583756044732E-7</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P31" s="2">
         <v>0.28000000000000003</v>
       </c>
@@ -15870,7 +15055,7 @@
         <v>3.3577777649389839E-7</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P32" s="2">
         <v>0.28999999999999998</v>
       </c>
@@ -15883,7 +15068,7 @@
         <v>4.0774560915486667E-7</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P33" s="2">
         <v>0.3</v>
       </c>
@@ -15896,7 +15081,7 @@
         <v>4.9506983141184793E-7</v>
       </c>
     </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P34" s="2">
         <v>0.31</v>
       </c>
@@ -15909,7 +15094,7 @@
         <v>6.0102716694409204E-7</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P35" s="2">
         <v>0.32</v>
       </c>
@@ -15922,7 +15107,7 @@
         <v>7.2959352187884896E-7</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P36" s="2">
         <v>0.33</v>
       </c>
@@ -15935,7 +15120,7 @@
         <v>8.8559317530708794E-7</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P37" s="2">
         <v>0.34</v>
       </c>
@@ -15948,7 +15133,7 @@
         <v>1.0748798038506165E-6</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P38" s="2">
         <v>0.35</v>
       </c>
@@ -15961,7 +15146,7 @@
         <v>1.3045561329833437E-6</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P39" s="2">
         <v>0.36</v>
       </c>
@@ -15974,7 +15159,7 @@
         <v>1.5832404572263241E-6</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P40" s="2">
         <v>0.37</v>
       </c>
@@ -15987,7 +15172,7 @@
         <v>1.9213900300274667E-6</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P41" s="2">
         <v>0.38</v>
       </c>
@@ -16000,7 +15185,7 @@
         <v>2.3316934580950589E-6</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P42" s="2">
         <v>0.39</v>
       </c>
@@ -16013,7 +15198,7 @@
         <v>2.8295468242532931E-6</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P43" s="2">
         <v>0.4</v>
       </c>
@@ -16026,7 +15211,7 @@
         <v>3.4336314046878852E-6</v>
       </c>
     </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P44" s="2">
         <v>0.41</v>
       </c>
@@ -16039,7 +15224,7 @@
         <v>4.1666146586423174E-6</v>
       </c>
     </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P45" s="2">
         <v>0.42</v>
       </c>
@@ -16052,7 +15237,7 @@
         <v>5.0560007942578331E-6</v>
       </c>
     </row>
-    <row r="46" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P46" s="2">
         <v>0.43</v>
       </c>
@@ -16065,7 +15250,7 @@
         <v>6.1351628268931147E-6</v>
       </c>
     </row>
-    <row r="47" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P47" s="2">
         <v>0.44</v>
       </c>
@@ -16078,7 +15263,7 @@
         <v>7.4445948565205405E-6</v>
       </c>
     </row>
-    <row r="48" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P48" s="2">
         <v>0.45</v>
       </c>
@@ -16091,7 +15276,7 @@
         <v>9.0334315542193702E-6</v>
       </c>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P49" s="2">
         <v>0.46</v>
       </c>
@@ -16104,7 +15289,7 @@
         <v>1.0961291874447518E-5</v>
       </c>
     </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P50" s="2">
         <v>0.47</v>
       </c>
@@ -16117,7 +15302,7 @@
         <v>1.3300516175908538E-5</v>
       </c>
     </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P51" s="2">
         <v>0.48</v>
       </c>
@@ -16130,7 +15315,7 @@
         <v>1.6138880695957493E-5</v>
       </c>
     </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P52" s="2">
         <v>0.49</v>
       </c>
@@ -16143,7 +15328,7 @@
         <v>1.958289123553721E-5</v>
       </c>
     </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P53" s="2">
         <v>0.5</v>
       </c>
@@ -16156,7 +15341,7 @@
         <v>2.3761779645730403E-5</v>
       </c>
     </row>
-    <row r="54" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P54" s="2">
         <v>0.51</v>
       </c>
@@ -16169,7 +15354,7 @@
         <v>2.8832353078696171E-5</v>
       </c>
     </row>
-    <row r="55" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P55" s="2">
         <v>0.52</v>
       </c>
@@ -16182,7 +15367,7 @@
         <v>3.4984877964592713E-5</v>
       </c>
     </row>
-    <row r="56" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P56" s="2">
         <v>0.53</v>
       </c>
@@ -16195,7 +15380,7 @@
         <v>4.2450219502785518E-5</v>
       </c>
     </row>
-    <row r="57" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P57" s="2">
         <v>0.54</v>
       </c>
@@ -16208,7 +15393,7 @@
         <v>5.1508504567120658E-5</v>
       </c>
     </row>
-    <row r="58" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P58" s="2">
         <v>0.55000000000000004</v>
       </c>
@@ -16221,7 +15406,7 @@
         <v>6.2499633089101202E-5</v>
       </c>
     </row>
-    <row r="59" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P59" s="2">
         <v>0.56000000000000005</v>
       </c>
@@ -16234,7 +15419,7 @@
         <v>7.5836032344445383E-5</v>
       </c>
     </row>
-    <row r="60" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P60" s="2">
         <v>0.56999999999999995</v>
       </c>
@@ -16247,7 +15432,7 @@
         <v>9.2018132730429511E-5</v>
       </c>
     </row>
-    <row r="61" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P61" s="2">
         <v>0.57999999999999996</v>
       </c>
@@ -16260,7 +15445,7 @@
         <v>1.1165314574169192E-4</v>
       </c>
     </row>
-    <row r="62" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P62" s="2">
         <v>0.59</v>
       </c>
@@ -16273,7 +15458,7 @@
         <v>1.3547784876271406E-4</v>
       </c>
     </row>
-    <row r="63" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P63" s="2">
         <v>0.6</v>
       </c>
@@ -16286,7 +15471,7 @@
         <v>1.6438623164559399E-4</v>
       </c>
     </row>
-    <row r="64" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P64" s="2">
         <v>0.61</v>
       </c>
@@ -16299,7 +15484,7 @@
         <v>1.9946304247365736E-4</v>
       </c>
     </row>
-    <row r="65" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P65" s="2">
         <v>0.62</v>
       </c>
@@ -16312,7 +15497,7 @@
         <v>2.4202449127044915E-4</v>
       </c>
     </row>
-    <row r="66" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P66" s="2">
         <v>0.63</v>
       </c>
@@ -16325,7 +15510,7 @@
         <v>2.9366763900589454E-4</v>
       </c>
     </row>
-    <row r="67" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P67" s="2">
         <v>0.64</v>
       </c>
@@ -16338,7 +15523,7 @@
         <v>3.5633032515547928E-4</v>
       </c>
     </row>
-    <row r="68" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P68" s="2">
         <v>0.65</v>
       </c>
@@ -16351,7 +15536,7 @@
         <v>4.3236388251330002E-4</v>
       </c>
     </row>
-    <row r="69" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P69" s="2">
         <v>0.66</v>
       </c>
@@ -16364,7 +15549,7 @@
         <v>5.2462136778427457E-4</v>
       </c>
     </row>
-    <row r="70" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P70" s="2">
         <v>0.67</v>
       </c>
@@ -16377,7 +15562,7 @@
         <v>6.3656461868950918E-4</v>
       </c>
     </row>
-    <row r="71" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P71" s="2">
         <v>0.68</v>
       </c>
@@ -16390,7 +15575,7 @@
         <v>7.7239415475832771E-4</v>
       </c>
     </row>
-    <row r="72" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P72" s="2">
         <v>0.69</v>
       </c>
@@ -16403,7 +15588,7 @@
         <v>9.3720679615900331E-4</v>
       </c>
     </row>
-    <row r="73" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P73" s="2">
         <v>0.7</v>
       </c>
@@ -16416,7 +15601,7 @@
         <v>1.1371869150022702E-3</v>
       </c>
     </row>
-    <row r="74" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P74" s="2">
         <v>0.71</v>
       </c>
@@ -16429,7 +15614,7 @@
         <v>1.3798384955648457E-3</v>
       </c>
     </row>
-    <row r="75" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P75" s="2">
         <v>0.72</v>
       </c>
@@ -16442,7 +15627,7 @@
         <v>1.6742667111799326E-3</v>
       </c>
     </row>
-    <row r="76" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P76" s="2">
         <v>0.73</v>
       </c>
@@ -16455,7 +15640,7 @@
         <v>2.0315195835877782E-3</v>
       </c>
     </row>
-    <row r="77" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P77" s="2">
         <v>0.74</v>
       </c>
@@ -16468,7 +15653,7 @@
         <v>2.4650025450526874E-3</v>
       </c>
     </row>
-    <row r="78" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P78" s="2">
         <v>0.75</v>
       </c>
@@ -16481,7 +15666,7 @@
         <v>2.9909814591308642E-3</v>
       </c>
     </row>
-    <row r="79" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P79" s="2">
         <v>0.76</v>
       </c>
@@ -16494,7 +15679,7 @@
         <v>3.6291929752650526E-3</v>
       </c>
     </row>
-    <row r="80" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P80" s="2">
         <v>0.77</v>
       </c>
@@ -16507,7 +15692,7 @@
         <v>4.4035851199390498E-3</v>
       </c>
     </row>
-    <row r="81" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P81" s="2">
         <v>0.78</v>
       </c>
@@ -16520,7 +15705,7 @@
         <v>5.3432159140764371E-3</v>
       </c>
     </row>
-    <row r="82" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P82" s="2">
         <v>0.79</v>
       </c>
@@ -16533,7 +15718,7 @@
         <v>6.4833437360895876E-3</v>
       </c>
     </row>
-    <row r="83" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P83" s="2">
         <v>0.8</v>
       </c>
@@ -16546,7 +15731,7 @@
         <v>7.866750344981974E-3</v>
       </c>
     </row>
-    <row r="84" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P84" s="2">
         <v>0.81</v>
       </c>
@@ -16559,7 +15744,7 @@
         <v>9.5453462081614478E-3</v>
       </c>
     </row>
-    <row r="85" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P85" s="2">
         <v>0.82</v>
       </c>
@@ -16572,7 +15757,7 @@
         <v>1.1582118371725972E-2</v>
       </c>
     </row>
-    <row r="86" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P86" s="2">
         <v>0.83</v>
       </c>
@@ -16585,7 +15770,7 @@
         <v>1.4053493964427502E-2</v>
       </c>
     </row>
-    <row r="87" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P87" s="2">
         <v>0.84</v>
       </c>
@@ -16598,7 +15783,7 @@
         <v>1.7052208022612408E-2</v>
       </c>
     </row>
-    <row r="88" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P88" s="2">
         <v>0.85</v>
       </c>
@@ -16611,7 +15796,7 @@
         <v>2.0690783247402963E-2</v>
       </c>
     </row>
-    <row r="89" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P89" s="2">
         <v>0.86</v>
       </c>
@@ -16624,7 +15809,7 @@
         <v>2.510575226731453E-2</v>
       </c>
     </row>
-    <row r="90" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P90" s="2">
         <v>0.87</v>
       </c>
@@ -16637,7 +15822,7 @@
         <v>3.0462780841019745E-2</v>
       </c>
     </row>
-    <row r="91" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P91" s="2">
         <v>0.88</v>
       </c>
@@ -16650,7 +15835,7 @@
         <v>3.6962884241534426E-2</v>
       </c>
     </row>
-    <row r="92" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P92" s="2">
         <v>0.89</v>
       </c>
@@ -16663,7 +15848,7 @@
         <v>4.4849970083258646E-2</v>
       </c>
     </row>
-    <row r="93" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P93" s="2">
         <v>0.9</v>
       </c>
@@ -16676,7 +15861,7 @@
         <v>5.4419990626285879E-2</v>
       </c>
     </row>
-    <row r="94" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P94" s="2">
         <v>0.91</v>
       </c>
@@ -16689,7 +15874,7 @@
         <v>6.6032047985857045E-2</v>
       </c>
     </row>
-    <row r="95" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P95" s="2">
         <v>0.92</v>
       </c>
@@ -16702,7 +15887,7 @@
         <v>8.0121868954968339E-2</v>
       </c>
     </row>
-    <row r="96" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P96" s="2">
         <v>0.93</v>
       </c>
@@ -16715,7 +15900,7 @@
         <v>9.7218155064679693E-2</v>
       </c>
     </row>
-    <row r="97" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P97" s="2">
         <v>0.94</v>
       </c>
@@ -16728,7 +15913,7 @@
         <v>0.11796242139608826</v>
       </c>
     </row>
-    <row r="98" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P98" s="2">
         <v>0.95</v>
       </c>
@@ -16741,7 +15926,7 @@
         <v>0.14313306856863231</v>
       </c>
     </row>
-    <row r="99" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P99" s="2">
         <v>0.96</v>
       </c>
@@ -16754,7 +15939,7 @@
         <v>0.17367459117362488</v>
       </c>
     </row>
-    <row r="100" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P100" s="2">
         <v>0.97</v>
       </c>
@@ -16767,7 +15952,7 @@
         <v>0.21073301866009589</v>
       </c>
     </row>
-    <row r="101" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P101" s="2">
         <v>0.98</v>
       </c>
@@ -16780,7 +15965,7 @@
         <v>0.25569891854439109</v>
       </c>
     </row>
-    <row r="102" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P102" s="2">
         <v>0.99</v>
       </c>
@@ -16793,7 +15978,7 @@
         <v>0.31025957558097478</v>
       </c>
     </row>
-    <row r="103" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P103" s="2">
         <v>1</v>
       </c>
@@ -16819,15 +16004,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>198120</xdr:colOff>
+                <xdr:colOff>200025</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>845820</xdr:colOff>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -16846,13 +16031,13 @@
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>1143000</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -16874,9 +16059,9 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>151</v>
       </c>
@@ -16896,7 +16081,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>154</v>
       </c>
@@ -16916,7 +16101,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>9</v>
       </c>
@@ -16924,7 +16109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>147</v>
       </c>
@@ -16932,7 +16117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>174</v>
       </c>
@@ -16940,7 +16125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E10" s="39">
         <f>-1/F5</f>
         <v>-2.0000000000000001E-4</v>
@@ -16958,7 +16143,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E11" s="42">
         <v>0</v>
       </c>
@@ -16975,7 +16160,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" s="44">
         <f>1/C5+1/F5</f>
         <v>5.0200000000000002E-2</v>
@@ -16992,7 +16177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E14">
         <f t="array" ref="E14:G16">MINVERSE(E10:G12)</f>
         <v>-4716.3493028909952</v>
@@ -17008,7 +16193,7 @@
         <v>-23.580804779072796</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>47.314577884487527</v>
       </c>
@@ -17022,7 +16207,7 @@
         <v>4.4033966430010709</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>-3.946169965345081E-2</v>
       </c>
@@ -17036,7 +16221,7 @@
         <v>4.1664692271534598</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="58">
         <f>(F5/F4)*(C9-C8)</f>
         <v>-25</v>
@@ -17055,9 +16240,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
@@ -17085,13 +16270,13 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I3">
         <v>3000</v>
       </c>
@@ -17109,7 +16294,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -17134,7 +16319,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>132</v>
       </c>
@@ -17153,7 +16338,7 @@
         <v>1.6666666666666666E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>133</v>
       </c>
@@ -17172,7 +16357,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>1000</v>
       </c>
@@ -17184,7 +16369,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>C4+C5</f>
         <v>1.5E-3</v>
@@ -17201,7 +16386,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>-C5</f>
         <v>-5.0000000000000001E-4</v>
@@ -17233,7 +16418,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>-C4</f>
         <v>-1E-3</v>
@@ -17265,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>0</v>
       </c>
@@ -17282,7 +16467,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14">
         <f t="array" ref="C14:E16">MINVERSE(C9:E11)</f>
         <v>2428.571428571428</v>
@@ -17298,7 +16483,7 @@
         <v>5.428571428571427</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>999.99999999999966</v>
       </c>
@@ -17326,7 +16511,7 @@
         <v>13.454545454545453</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2142.8571428571422</v>
       </c>
@@ -17352,7 +16537,7 @@
         <v>4.3636363636363642</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>181.81818181818184</v>
       </c>
@@ -17366,7 +16551,7 @@
         <v>2.7878787878787881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -17404,7 +16589,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -17442,7 +16627,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -17475,7 +16660,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -17493,7 +16678,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -17519,7 +16704,7 @@
         <v>-0.67567567567567566</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>9.0090090090090095E-6</v>
       </c>
@@ -17537,7 +16722,7 @@
         <v>0.46846846846846846</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>3.6036036036036038E-5</v>
       </c>
@@ -17567,7 +16752,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J28">
         <f>-K23</f>
         <v>-5.0000000000000001E-4</v>
@@ -17581,7 +16766,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J31">
         <f t="array" ref="J31:K32">MINVERSE(J27:K28)</f>
         <v>1200</v>
@@ -17594,7 +16779,7 @@
         <v>0.80000000000000027</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J32">
         <v>400</v>
       </c>
@@ -17618,9 +16803,9 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>151</v>
       </c>
@@ -17635,7 +16820,7 @@
       </c>
       <c r="G3" s="52"/>
     </row>
-    <row r="4" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>154</v>
       </c>
@@ -17650,7 +16835,7 @@
       </c>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>9</v>
       </c>
@@ -17664,7 +16849,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>177</v>
       </c>
@@ -17676,7 +16861,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>174</v>
       </c>
@@ -17684,7 +16869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E10" s="39">
         <f>1/C4+1/F4</f>
         <v>5.0200000000000002E-2</v>
@@ -17705,7 +16890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E11" s="42">
         <f>-1/F4</f>
         <v>-2.0000000000000001E-4</v>
@@ -17727,7 +16912,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E12" s="42">
         <v>0</v>
       </c>
@@ -17749,7 +16934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E13" s="44">
         <v>0</v>
       </c>
@@ -17770,7 +16955,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="array" ref="E15:H18">MINVERSE(E10:H13)</f>
         <v>1.9726014029628289</v>
@@ -17796,7 +16981,7 @@
         <v>-9.6222788732781108</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>0.18020229000585344</v>
       </c>
@@ -17820,7 +17005,7 @@
         <v>1.0966515459495503</v>
       </c>
     </row>
-    <row r="17" spans="5:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>9.5636515689151349E-4</v>
       </c>
@@ -17844,7 +17029,7 @@
         <v>2.8031295165396668</v>
       </c>
     </row>
-    <row r="18" spans="5:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>-8.8474367871054255E-2</v>
       </c>
@@ -17887,9 +17072,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>243840</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -17911,15 +17096,15 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -17930,7 +17115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
@@ -17948,7 +17133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
@@ -17974,11 +17159,11 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G4" s="4"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -17996,7 +17181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
@@ -18014,22 +17199,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>23</v>
       </c>
@@ -18049,11 +17234,11 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -18072,15 +17257,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>563880</xdr:colOff>
+                <xdr:colOff>561975</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -18105,7 +17290,7 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -18127,13 +17312,13 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
@@ -18162,7 +17347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
@@ -18188,7 +17373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
@@ -18206,7 +17391,7 @@
         <v>26.923076923076923</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="E6" s="16" t="s">
         <v>34</v>
       </c>
@@ -18215,7 +17400,7 @@
         <v>28.076923076923077</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
@@ -18224,7 +17409,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -18232,13 +17417,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L10" s="17">
         <f>(F6-F5)/B7</f>
         <v>1.6646481241026494</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>39</v>
       </c>
@@ -18247,12 +17432,12 @@
         <v>9.4616475818645175E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="7:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>40</v>
       </c>
@@ -18264,7 +17449,7 @@
         <v>4.328085122666888E-2</v>
       </c>
     </row>
-    <row r="19" spans="7:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
         <v>42</v>
       </c>
@@ -18284,22 +17469,22 @@
   <dimension ref="A2:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
@@ -18316,7 +17501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -18347,7 +17532,7 @@
         <v>0.11973442483569038</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="E6" s="7">
         <v>100</v>
       </c>
@@ -18369,7 +17554,7 @@
         <v>0.23946884967138077</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="D8" s="20" t="s">
         <v>46</v>
       </c>
@@ -18397,7 +17582,7 @@
         <v>3.0564906574910188E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="D10" s="20" t="s">
         <v>47</v>
       </c>
@@ -18425,12 +17610,12 @@
         <v>3.4727127373934082E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>28</v>
       </c>
@@ -18458,7 +17643,7 @@
         <v>9.747967165471425E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G15" s="16" t="s">
         <v>45</v>
       </c>
@@ -18473,7 +17658,7 @@
         <v>4.4481870586889081E-12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G16" s="16" t="s">
         <v>45</v>
       </c>
@@ -18488,17 +17673,17 @@
         <v>2.0298140601101118E-15</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>51</v>
       </c>
@@ -18509,7 +17694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K21" s="21" t="s">
         <v>55</v>
       </c>
@@ -18520,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J22" s="2" t="s">
         <v>53</v>
       </c>
@@ -18536,7 +17721,7 @@
         <v>1.8021826694558575E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
@@ -18555,7 +17740,7 @@
         <v>5.9867212417845192E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J25" s="23" t="s">
         <v>57</v>
       </c>
@@ -18567,22 +17752,22 @@
         <v>1.670363391935584</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K26" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.35">
       <c r="J30" s="16" t="s">
         <v>8</v>
       </c>
@@ -18590,7 +17775,7 @@
         <v>9.747967165471425E-9</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I32" s="2" t="s">
         <v>183</v>
       </c>
@@ -18598,7 +17783,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I33" s="2"/>
       <c r="J33">
         <v>1</v>
@@ -18610,221 +17795,224 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" s="69">
-        <f>$K$30*(EXP($I34/(J$33*$B$4))+1)</f>
+        <f t="shared" ref="J34:L45" si="0">$K$30*(EXP($I34/(J$33*$B$4))+1)</f>
         <v>1.949593433094285E-8</v>
       </c>
       <c r="K34" s="69">
-        <f>$K$30*(EXP($I34/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.949593433094285E-8</v>
       </c>
       <c r="L34" s="69">
-        <f>$K$30*(EXP($I34/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.949593433094285E-8</v>
       </c>
       <c r="M34" s="71"/>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I35" s="2">
         <v>0.05</v>
       </c>
       <c r="J35" s="69">
-        <f>$K$30*(EXP($I35/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>7.6443347521892064E-8</v>
       </c>
       <c r="K35" s="69">
-        <f>$K$30*(EXP($I35/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>4.0581469443822234E-8</v>
       </c>
       <c r="L35" s="69">
-        <f>$K$30*(EXP($I35/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.524589605789358E-8</v>
       </c>
       <c r="M35" s="71"/>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I36" s="2">
         <v>0.1</v>
       </c>
       <c r="J36" s="69">
-        <f>$K$30*(EXP($I36/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>4.6607631597690245E-7</v>
       </c>
       <c r="K36" s="69">
-        <f>$K$30*(EXP($I36/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.0727649250935908E-7</v>
       </c>
       <c r="L36" s="69">
-        <f>$K$30*(EXP($I36/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>7.6443347521892064E-8</v>
       </c>
       <c r="M36" s="71"/>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I37" s="2">
         <v>0.15</v>
       </c>
       <c r="J37" s="69">
-        <f>$K$30*(EXP($I37/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.1319366527409099E-6</v>
       </c>
       <c r="K37" s="69">
-        <f>$K$30*(EXP($I37/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.1823751758647181E-7</v>
       </c>
       <c r="L37" s="69">
-        <f>$K$30*(EXP($I37/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.8420424475786924E-7</v>
       </c>
       <c r="M37" s="71"/>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I38" s="2">
         <v>0.2</v>
       </c>
       <c r="J38" s="69">
-        <f>$K$30*(EXP($I38/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>2.1371695375704625E-5</v>
       </c>
       <c r="K38" s="69">
-        <f>$K$30*(EXP($I38/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>9.8552200233512447E-7</v>
       </c>
       <c r="L38" s="69">
-        <f>$K$30*(EXP($I38/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>4.6607631597690245E-7</v>
       </c>
       <c r="M38" s="71"/>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I39" s="2">
         <v>0.25</v>
       </c>
       <c r="J39" s="69">
-        <f>$K$30*(EXP($I39/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.4616772976802726E-4</v>
       </c>
       <c r="K39" s="69">
-        <f>$K$30*(EXP($I39/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.0961895221934238E-6</v>
       </c>
       <c r="L39" s="69">
-        <f>$K$30*(EXP($I39/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.2033740424362703E-6</v>
       </c>
       <c r="M39" s="71"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I40" s="2">
         <v>0.3</v>
       </c>
       <c r="J40" s="69">
-        <f>$K$30*(EXP($I40/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.0000194959343309E-3</v>
       </c>
       <c r="K40" s="69">
-        <f>$K$30*(EXP($I40/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>9.772378585787237E-6</v>
       </c>
       <c r="L40" s="69">
-        <f>$K$30*(EXP($I40/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.1319366527409099E-6</v>
       </c>
       <c r="M40" s="71"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I41" s="2">
         <v>0.35</v>
       </c>
       <c r="J41" s="69">
-        <f>$K$30*(EXP($I41/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>6.8420547988619308E-3</v>
       </c>
       <c r="K41" s="69">
-        <f>$K$30*(EXP($I41/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.0889631773935964E-5</v>
       </c>
       <c r="L41" s="69">
-        <f>$K$30*(EXP($I41/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>8.1765117387458909E-6</v>
       </c>
       <c r="M41" s="71"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I42" s="2">
         <v>0.4</v>
       </c>
       <c r="J42" s="69">
-        <f>$K$30*(EXP($I42/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>4.6813133893643728E-2</v>
       </c>
       <c r="K42" s="69">
-        <f>$K$30*(EXP($I42/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>9.7684981331087092E-5</v>
       </c>
       <c r="L42" s="69">
-        <f>$K$30*(EXP($I42/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>2.1371695375704625E-5</v>
       </c>
       <c r="M42" s="71"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I43" s="2">
         <v>0.45</v>
       </c>
       <c r="J43" s="70">
-        <f>$K$30*(EXP($I43/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>0.32029439190669523</v>
       </c>
       <c r="K43" s="69">
-        <f>$K$30*(EXP($I43/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.0896334612172773E-4</v>
       </c>
       <c r="L43" s="69">
-        <f>$K$30*(EXP($I43/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>5.588656892691798E-5</v>
       </c>
       <c r="M43" s="71"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I44" s="2">
         <v>0.5</v>
       </c>
       <c r="J44" s="70">
-        <f>$K$30*(EXP($I44/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>2.1914472398708376</v>
       </c>
       <c r="K44" s="69">
-        <f>$K$30*(EXP($I44/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>9.7725159859076349E-4</v>
       </c>
       <c r="L44" s="69">
-        <f>$K$30*(EXP($I44/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>1.4616772976802726E-4</v>
       </c>
       <c r="M44" s="71"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I45" s="2">
         <v>0.55000000000000004</v>
       </c>
       <c r="J45" s="70">
-        <f>$K$30*(EXP($I45/(J$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>14.993834525500707</v>
       </c>
       <c r="K45" s="69">
-        <f>$K$30*(EXP($I45/(K$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.0910941059893418E-3</v>
       </c>
       <c r="L45" s="69">
-        <f>$K$30*(EXP($I45/(L$33*$B$4))+1)</f>
+        <f t="shared" si="0"/>
         <v>3.8231774754874612E-4</v>
       </c>
-      <c r="M45" s="71"/>
+      <c r="M45" s="71">
+        <f>LOG10(J45)</f>
+        <v>1.1759127135890257</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18845,9 +18033,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>137160</xdr:colOff>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -18869,19 +18057,19 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -18892,7 +18080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -18914,7 +18102,7 @@
         <v>510095540.42730534</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -18933,7 +18121,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -18944,7 +18132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -18958,12 +18146,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -18974,7 +18162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -18999,7 +18187,7 @@
         <v>0.29933632208792593</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -19017,7 +18205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -19025,12 +18213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="F16" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -19062,7 +18250,7 @@
         <v>4.4362891532415388E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -19094,7 +18282,7 @@
         <v>5.5640942051633313E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
@@ -19110,7 +18298,7 @@
         <v>1.0000383358404869E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
@@ -19124,7 +18312,7 @@
         <v>0.55640942051633313</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F21" s="21" t="s">
         <v>29</v>
       </c>
@@ -19140,12 +18328,12 @@
         <v>0.27820471025816657</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>65</v>
       </c>
@@ -19166,7 +18354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F26" s="20" t="s">
         <v>28</v>
       </c>
@@ -19175,7 +18363,7 @@
         <v>4.6606404783148311E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F27" s="20" t="s">
         <v>66</v>
       </c>
@@ -19184,7 +18372,7 @@
         <v>3.3935409276567621E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" s="4" t="s">
         <v>65</v>
       </c>
@@ -19193,7 +18381,7 @@
         <v>4.9999945710805073E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F29" s="21" t="s">
         <v>69</v>
       </c>
@@ -19212,10 +18400,10 @@
         <v>0.68053559257813667</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>71</v>
       </c>
@@ -19238,14 +18426,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -19256,7 +18444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -19281,7 +18469,7 @@
         <v>1.1346230359332438E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -19289,7 +18477,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -19307,7 +18495,7 @@
         <v>4.5371840999146791</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -19325,7 +18513,7 @@
         <v>9.0743681998293582</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F10" s="21" t="s">
         <v>81</v>
       </c>
@@ -19333,7 +18521,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -19350,7 +18538,7 @@
         <v>4.9065622363565486E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -19367,7 +18555,7 @@
         <v>-5.4239522327690359E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -19376,12 +18564,12 @@
         <v>2.2692460718664875E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="9" t="s">
         <v>85</v>
       </c>
@@ -19390,7 +18578,7 @@
         <v>1.6264117167541401E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F19" s="9" t="s">
         <v>87</v>
       </c>
@@ -19399,7 +18587,7 @@
         <v>9.7198186425782977E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>2</v>
       </c>
@@ -19408,7 +18596,7 @@
         <v>61.7295468221661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>89</v>
       </c>
@@ -19417,7 +18605,7 @@
         <v>31.652227327660366</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -19425,7 +18613,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>88</v>
       </c>
@@ -19448,27 +18636,27 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -19476,7 +18664,7 @@
         <v>1.6722408026755855</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
@@ -19487,7 +18675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -19495,7 +18683,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -19503,12 +18691,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="E23" s="4" t="s">
         <v>97</v>
       </c>
@@ -19519,7 +18707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>93</v>
       </c>
@@ -19539,7 +18727,7 @@
         <v>8.9999999999913367</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>100</v>
       </c>
@@ -19548,12 +18736,12 @@
         <v>3.6265653580610757</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -19561,7 +18749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>104</v>
       </c>
@@ -19576,7 +18764,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>105</v>
       </c>
@@ -19591,7 +18779,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -19599,7 +18787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -19607,7 +18795,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="D37" s="4" t="s">
         <v>102</v>
       </c>
@@ -19621,7 +18809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>93</v>
       </c>
@@ -19659,19 +18847,19 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -19679,7 +18867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -19690,7 +18878,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
         <v>122</v>
       </c>
@@ -19698,13 +18886,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
       <c r="C5" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>120</v>
       </c>
@@ -19712,7 +18900,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -19720,8 +18908,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G10" s="4" t="s">
         <v>106</v>
       </c>
@@ -19741,7 +18929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G11" s="4" t="s">
         <v>107</v>
       </c>
@@ -19767,7 +18955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G12" s="4" t="s">
         <v>108</v>
       </c>
@@ -19790,14 +18978,14 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G13" s="4"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="G15" s="4" t="s">
         <v>109</v>
       </c>
@@ -19822,7 +19010,7 @@
         <v>-499999.99924999988</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
       <c r="G16" s="4" t="s">
         <v>110</v>
       </c>
@@ -19848,7 +19036,7 @@
         <v>-1.4999999977499999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J17" s="44">
         <v>-0.49999999975000003</v>
       </c>
@@ -19865,17 +19053,17 @@
         <v>-500000.00074999995</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -19895,12 +19083,12 @@
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -19908,7 +19096,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -19928,7 +19116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -19948,7 +19136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D11" s="54" t="s">
         <v>164</v>
       </c>
@@ -19964,7 +19152,7 @@
         <v>1996.0079840319358</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -19972,7 +19160,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -19992,7 +19180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>148</v>
       </c>
@@ -20004,7 +19192,7 @@
         <v>665.33599467731187</v>
       </c>
     </row>
-    <row r="18" spans="5:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I18" s="52" t="s">
         <v>151</v>
       </c>
@@ -20012,7 +19200,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="5:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E19" s="57">
         <f>1/(1+J18/(J19+J20*J18))</f>
         <v>0.99009901186158167</v>
@@ -20024,7 +19212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I20" s="52" t="s">
         <v>149</v>
       </c>
@@ -20032,13 +19220,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="57">
         <f>1/(1+1/J20)</f>
         <v>0.99009900990099009</v>
       </c>
     </row>
-    <row r="39" spans="8:16" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H39" s="52" t="s">
         <v>151</v>
       </c>
@@ -20052,7 +19240,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="8:16" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H40" s="52" t="s">
         <v>154</v>
       </c>
@@ -20066,7 +19254,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="8:16" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H41" s="52" t="s">
         <v>147</v>
       </c>
@@ -20074,7 +19262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H42" s="52" t="s">
         <v>9</v>
       </c>
@@ -20085,7 +19273,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H44" s="39">
         <f>-1/L40</f>
         <v>-2.0000000000000001E-4</v>
@@ -20110,7 +19298,7 @@
         <v>-4.716125966349284</v>
       </c>
     </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H45" s="44">
         <f>1/L40+1/I40</f>
         <v>5.0200000000000002E-2</v>
@@ -20132,7 +19320,7 @@
         <v>4.7351798774097779E-2</v>
       </c>
     </row>
-    <row r="49" spans="8:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H49" s="52" t="s">
         <v>151</v>
       </c>
@@ -20146,7 +19334,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="8:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H50" s="52" t="s">
         <v>154</v>
       </c>
@@ -20160,7 +19348,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="8:18" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H51" s="52" t="s">
         <v>147</v>
       </c>
@@ -20168,7 +19356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H52" s="52" t="s">
         <v>9</v>
       </c>
@@ -20176,7 +19364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:18" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
         <v>170</v>
       </c>
@@ -20184,7 +19372,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H55">
         <f>-1/L50</f>
         <v>-2.0000000000000001E-4</v>
@@ -20213,7 +19401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H56">
         <f>1/I50+1/L50</f>
         <v>5.0200000000000002E-2</v>
@@ -20236,12 +19424,12 @@
         <v>0.94322094916841326</v>
       </c>
     </row>
-    <row r="57" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:18" x14ac:dyDescent="0.25">
       <c r="R57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:18" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
         <v>173</v>
       </c>
@@ -20254,7 +19442,7 @@
         <v>-5.682636670727851E-2</v>
       </c>
     </row>
-    <row r="61" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:18" x14ac:dyDescent="0.25">
       <c r="M61">
         <f>-1/(1+I52*M59)</f>
         <v>-5.6603773584905669E-2</v>
@@ -20273,15 +19461,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>220980</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20304,9 +19492,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>160020</xdr:colOff>
+                <xdr:colOff>161925</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20329,9 +19517,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>274320</xdr:colOff>
+                <xdr:colOff>276225</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20348,15 +19536,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>289560</xdr:colOff>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20373,15 +19561,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>541020</xdr:colOff>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -20400,7 +19588,7 @@
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
@@ -20423,15 +19611,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>594360</xdr:colOff>
+                <xdr:colOff>590550</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/sabah/Chapter01/Chapter01.xlsx
+++ b/sabah/Chapter01/Chapter01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exmpl1.2.1-exact" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Vsrc">'Exmpl1.2.1-exact'!$J$5</definedName>
     <definedName name="Vt">'Exmpl1.2.1-exact'!$J$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2220,11 +2220,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
@@ -2894,10 +2893,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4231,13 +4230,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173859968"/>
-        <c:axId val="173861504"/>
+        <c:axId val="961162512"/>
+        <c:axId val="961163056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173859968"/>
+        <c:axId val="961162512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4248,7 +4246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173861504"/>
+        <c:crossAx val="961163056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4258,7 +4256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173861504"/>
+        <c:axId val="961163056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0000000000000002E-2"/>
@@ -4270,7 +4268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173859968"/>
+        <c:crossAx val="961162512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4369,7 +4367,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4414,40 +4412,40 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.949593433094285E-8</c:v>
+                  <c:v>2.0669920621115863E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6443347521892064E-8</c:v>
+                  <c:v>5.6947413190949221E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6607631597690245E-7</c:v>
+                  <c:v>4.4658038164595958E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1319366527409099E-6</c:v>
+                  <c:v>3.1124407184099671E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1371695375704625E-5</c:v>
+                  <c:v>2.1352199441373682E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4616772976802726E-4</c:v>
+                  <c:v>1.461482338336963E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0000194959343309E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8420547988619308E-3</c:v>
+                  <c:v>6.8420353029276003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6813133893643728E-2</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.000">
-                  <c:v>0.32029439190669523</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.000">
-                  <c:v>2.1914472398708376</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.000">
-                  <c:v>14.993834525500707</c:v>
+                  <c:v>4.6813114397709396E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32029437241076086</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000E+00">
+                  <c:v>2.1914472203749034</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000E+00">
+                  <c:v>14.993834506004774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4476,7 +4474,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4521,40 +4519,40 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.949593433094285E-8</c:v>
+                  <c:v>1.1897058945978716E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0581469443822234E-8</c:v>
+                  <c:v>2.1085535112879384E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0727649250935908E-7</c:v>
+                  <c:v>8.7780558178416236E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1823751758647181E-7</c:v>
+                  <c:v>2.9874158325552899E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8552200233512447E-7</c:v>
+                  <c:v>9.6602606800418144E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0961895221934238E-6</c:v>
+                  <c:v>3.076693587862481E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.772378585787237E-6</c:v>
+                  <c:v>9.7528826514562942E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0889631773935964E-5</c:v>
+                  <c:v>3.0870135839605021E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7684981331087092E-5</c:v>
+                  <c:v>9.7665485396756149E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0896334612172773E-4</c:v>
+                  <c:v>3.0894385018739683E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7725159859076349E-4</c:v>
+                  <c:v>9.7723210265643259E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0910941059893418E-3</c:v>
+                  <c:v>3.0910746100550105E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4583,7 +4581,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -4628,40 +4626,40 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.949593433094285E-8</c:v>
+                  <c:v>9.8384696876807993E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.524589605789358E-8</c:v>
+                  <c:v>1.5749961726950727E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6443347521892064E-8</c:v>
+                  <c:v>5.6947413190949221E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8420424475786924E-7</c:v>
+                  <c:v>1.647083104269264E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6607631597690245E-7</c:v>
+                  <c:v>4.4658038164595958E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2033740424362703E-6</c:v>
+                  <c:v>1.1838781081053275E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1319366527409099E-6</c:v>
+                  <c:v>3.1124407184099671E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1765117387458909E-6</c:v>
+                  <c:v>8.157015804414948E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1371695375704625E-5</c:v>
+                  <c:v>2.1352199441373682E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.588656892691798E-5</c:v>
+                  <c:v>5.5867072992587037E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4616772976802726E-4</c:v>
+                  <c:v>1.461482338336963E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8231774754874612E-4</c:v>
+                  <c:v>3.8229825161441517E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4676,13 +4674,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175912064"/>
-        <c:axId val="175913600"/>
+        <c:axId val="920885520"/>
+        <c:axId val="920886608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175912064"/>
+        <c:axId val="920885520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,7 +4736,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175913600"/>
+        <c:crossAx val="920886608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4749,7 +4746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175913600"/>
+        <c:axId val="920886608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4801,7 +4798,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175912064"/>
+        <c:crossAx val="920885520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4927,15 +4924,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>847725</xdr:colOff>
+          <xdr:colOff>845820</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4948,7 +4945,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4956,6 +4953,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4970,13 +4985,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4989,7 +5004,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4997,6 +5012,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5044,9 +5077,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>373380</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -5065,7 +5098,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5073,6 +5106,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5096,9 +5147,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5111,7 +5162,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5119,6 +5170,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5214,11 +5283,11 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
+          <xdr:colOff>601980</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -5233,7 +5302,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5241,6 +5310,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5253,15 +5340,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5274,7 +5361,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5282,6 +5369,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5302,7 +5407,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5315,7 +5420,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5323,6 +5428,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5391,7 +5507,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -5422,7 +5538,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -5447,7 +5563,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -5465,7 +5581,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -5474,7 +5590,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -5507,7 +5623,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1600" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -5676,7 +5792,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -5701,7 +5817,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -5719,7 +5835,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -5769,7 +5885,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5812,7 +5928,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5842,7 +5958,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6105,7 +6221,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6115,7 +6231,7 @@
                           <m:sSupPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -6134,7 +6250,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
@@ -6169,7 +6285,7 @@
                           <m:sSupPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -6192,7 +6308,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6260,7 +6376,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6298,7 +6414,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -6320,7 +6436,7 @@
                           <m:dPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -6334,7 +6450,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6393,7 +6509,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6425,7 +6541,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6440,7 +6556,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6729,7 +6845,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -6870,7 +6986,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1600" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -6901,7 +7017,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -6916,7 +7032,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="el-GR" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -6943,7 +7059,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -6974,7 +7090,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -7008,7 +7124,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -7034,7 +7150,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7079,7 +7195,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7363,7 +7479,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -7381,7 +7497,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -7390,7 +7506,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7423,7 +7539,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7622,7 +7738,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -7640,7 +7756,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -7649,7 +7765,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7682,7 +7798,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7881,7 +7997,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -7899,7 +8015,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -7908,7 +8024,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -7941,7 +8057,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8140,7 +8256,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -8158,7 +8274,7 @@
                             <m:type m:val="skw"/>
                             <m:ctrlPr>
                               <a:rPr lang="ru-RU" sz="1200" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:fPr>
@@ -8167,7 +8283,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="ru-RU" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8200,7 +8316,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="el-GR" sz="1200" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -8395,7 +8511,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="ru-RU" sz="1600" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -8412,7 +8528,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
@@ -8442,7 +8558,7 @@
                         <m:sSubPr>
                           <m:ctrlPr>
                             <a:rPr lang="ru-RU" sz="1600" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
@@ -8479,7 +8595,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -8493,7 +8609,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -8536,7 +8652,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -8566,7 +8682,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8581,7 +8697,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -8662,7 +8778,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -8711,7 +8827,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -8754,7 +8870,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -8784,7 +8900,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -8799,7 +8915,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -8856,7 +8972,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -8922,7 +9038,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -8941,7 +9057,7 @@
                         <m:fPr>
                           <m:ctrlPr>
                             <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
@@ -8955,7 +9071,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9034,7 +9150,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9091,7 +9207,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9187,7 +9303,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="el-GR" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -9215,7 +9331,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -9662,9 +9778,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9677,7 +9793,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -9685,6 +9801,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -9821,7 +9948,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -9874,7 +10001,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9917,7 +10044,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9949,7 +10076,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9964,7 +10091,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9979,7 +10106,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10034,7 +10161,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10079,7 +10206,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10359,7 +10486,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -10390,7 +10517,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -10405,7 +10532,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="el-GR" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -10432,7 +10559,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -10463,7 +10590,7 @@
                           <m:sSubPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSubPr>
@@ -10497,7 +10624,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -10523,7 +10650,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10568,7 +10695,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10848,7 +10975,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -10901,7 +11028,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10944,7 +11071,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10976,7 +11103,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10991,7 +11118,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11006,7 +11133,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11061,7 +11188,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11106,7 +11233,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11405,7 +11532,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -11433,7 +11560,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -11455,7 +11582,7 @@
                           <m:fPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -11465,7 +11592,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
@@ -11495,7 +11622,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
@@ -11659,7 +11786,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -11712,7 +11839,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11755,7 +11882,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11787,7 +11914,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11802,7 +11929,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11817,7 +11944,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11872,7 +11999,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -11917,7 +12044,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -12150,7 +12277,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -12181,7 +12308,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -12212,7 +12339,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -12372,7 +12499,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -12401,7 +12528,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12471,7 +12598,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12526,7 +12653,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12569,7 +12696,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12819,7 +12946,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12874,7 +13001,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12917,7 +13044,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12972,7 +13099,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13015,7 +13142,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13237,7 +13364,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -13254,7 +13381,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -13293,7 +13420,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13338,7 +13465,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13395,7 +13522,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13422,7 +13549,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13452,7 +13579,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -13469,7 +13596,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -13479,7 +13606,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13508,7 +13635,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13537,7 +13664,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13573,7 +13700,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -13590,7 +13717,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -13613,7 +13740,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13644,7 +13771,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13679,7 +13806,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13710,7 +13837,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="en-US" sz="1200" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -13849,15 +13976,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13870,7 +13997,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -13878,6 +14005,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -13934,9 +14079,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:colOff>160020</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13949,7 +14094,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -13957,6 +14102,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -13975,9 +14138,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:colOff>274320</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13990,7 +14153,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -13998,6 +14161,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14054,15 +14235,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14075,7 +14256,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14083,6 +14264,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14095,15 +14294,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14116,7 +14315,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14124,6 +14323,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14138,7 +14355,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
@@ -14157,7 +14374,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14165,6 +14382,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14177,15 +14412,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>594360</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14198,7 +14433,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -14206,6 +14441,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -14259,7 +14517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14294,7 +14552,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14509,19 +14767,19 @@
       <selection activeCell="G1" sqref="G1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16.2" x14ac:dyDescent="0.3">
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -14532,7 +14790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.4">
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
@@ -14562,7 +14820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
@@ -14581,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
@@ -14603,7 +14861,7 @@
         <v>3.2006777948325877E-10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.4">
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -14632,7 +14890,7 @@
         <v>7.0843114794208026E-10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
@@ -14664,7 +14922,7 @@
         <v>1.1796629170510709E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P7" s="2">
         <v>0.04</v>
       </c>
@@ -14677,7 +14935,7 @@
         <v>1.7514454234671828E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P8" s="2">
         <v>0.05</v>
       </c>
@@ -14690,7 +14948,7 @@
         <v>2.44523403466728E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
         <v>14</v>
       </c>
@@ -14712,7 +14970,7 @@
         <v>3.287062232679103E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K10">
         <v>1</v>
       </c>
@@ -14735,7 +14993,7 @@
         <v>4.3085184853869498E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K11">
         <v>2</v>
       </c>
@@ -14759,7 +15017,7 @@
         <v>5.5479315611904591E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K12">
         <v>3</v>
       </c>
@@ -14783,7 +15041,7 @@
         <v>7.0518087643505954E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -14810,7 +15068,7 @@
         <v>8.8765810588647096E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P14" s="2">
         <v>0.11</v>
       </c>
@@ -14823,7 +15081,7 @@
         <v>1.109072056429062E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P15" s="2">
         <v>0.12</v>
       </c>
@@ -14836,7 +15094,7 @@
         <v>1.3777309879695089E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="L16" s="9" t="s">
         <v>25</v>
       </c>
@@ -14856,7 +15114,7 @@
         <v>1.7037159646142861E-8</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>10/2000</f>
         <v>5.0000000000000001E-3</v>
@@ -14873,7 +15131,7 @@
         <v>2.0992591330054607E-8</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P18" s="2">
         <v>0.15</v>
       </c>
@@ -14886,7 +15144,7 @@
         <v>2.5792027171277912E-8</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P19" s="2">
         <v>0.16</v>
       </c>
@@ -14899,7 +15157,7 @@
         <v>3.161555952748305E-8</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P20" s="2">
         <v>0.17</v>
       </c>
@@ -14912,7 +15170,7 @@
         <v>3.8681708597021169E-8</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P21" s="2">
         <v>0.18</v>
       </c>
@@ -14925,7 +15183,7 @@
         <v>4.7255622094682436E-8</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P22" s="2">
         <v>0.19</v>
       </c>
@@ -14938,7 +15196,7 @@
         <v>5.7659024562129056E-8</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P23" s="2">
         <v>0.2</v>
       </c>
@@ -14951,7 +15209,7 @@
         <v>7.0282289647459898E-8</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P24" s="2">
         <v>0.21</v>
       </c>
@@ -14964,7 +15222,7 @@
         <v>8.5599088349917595E-8</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P25" s="2">
         <v>0.22</v>
       </c>
@@ -14977,7 +15235,7 @@
         <v>1.0418416288536714E-7</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P26" s="2">
         <v>0.23</v>
       </c>
@@ -14990,7 +15248,7 @@
         <v>1.2673489311287814E-7</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P27" s="2">
         <v>0.24</v>
       </c>
@@ -15003,7 +15261,7 @@
         <v>1.540974647734861E-7</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P28" s="2">
         <v>0.25</v>
       </c>
@@ -15016,7 +15274,7 @@
         <v>1.8729862146900229E-7</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P29" s="2">
         <v>0.26</v>
       </c>
@@ -15029,7 +15287,7 @@
         <v>2.2758419183105821E-7</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P30" s="2">
         <v>0.27</v>
       </c>
@@ -15042,7 +15300,7 @@
         <v>2.7646583756044732E-7</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P31" s="2">
         <v>0.28000000000000003</v>
       </c>
@@ -15055,7 +15313,7 @@
         <v>3.3577777649389839E-7</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="P32" s="2">
         <v>0.28999999999999998</v>
       </c>
@@ -15068,7 +15326,7 @@
         <v>4.0774560915486667E-7</v>
       </c>
     </row>
-    <row r="33" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P33" s="2">
         <v>0.3</v>
       </c>
@@ -15081,7 +15339,7 @@
         <v>4.9506983141184793E-7</v>
       </c>
     </row>
-    <row r="34" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P34" s="2">
         <v>0.31</v>
       </c>
@@ -15094,7 +15352,7 @@
         <v>6.0102716694409204E-7</v>
       </c>
     </row>
-    <row r="35" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P35" s="2">
         <v>0.32</v>
       </c>
@@ -15107,7 +15365,7 @@
         <v>7.2959352187884896E-7</v>
       </c>
     </row>
-    <row r="36" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P36" s="2">
         <v>0.33</v>
       </c>
@@ -15120,7 +15378,7 @@
         <v>8.8559317530708794E-7</v>
       </c>
     </row>
-    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P37" s="2">
         <v>0.34</v>
       </c>
@@ -15133,7 +15391,7 @@
         <v>1.0748798038506165E-6</v>
       </c>
     </row>
-    <row r="38" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P38" s="2">
         <v>0.35</v>
       </c>
@@ -15146,7 +15404,7 @@
         <v>1.3045561329833437E-6</v>
       </c>
     </row>
-    <row r="39" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P39" s="2">
         <v>0.36</v>
       </c>
@@ -15159,7 +15417,7 @@
         <v>1.5832404572263241E-6</v>
       </c>
     </row>
-    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P40" s="2">
         <v>0.37</v>
       </c>
@@ -15172,7 +15430,7 @@
         <v>1.9213900300274667E-6</v>
       </c>
     </row>
-    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P41" s="2">
         <v>0.38</v>
       </c>
@@ -15185,7 +15443,7 @@
         <v>2.3316934580950589E-6</v>
       </c>
     </row>
-    <row r="42" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P42" s="2">
         <v>0.39</v>
       </c>
@@ -15198,7 +15456,7 @@
         <v>2.8295468242532931E-6</v>
       </c>
     </row>
-    <row r="43" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P43" s="2">
         <v>0.4</v>
       </c>
@@ -15211,7 +15469,7 @@
         <v>3.4336314046878852E-6</v>
       </c>
     </row>
-    <row r="44" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P44" s="2">
         <v>0.41</v>
       </c>
@@ -15224,7 +15482,7 @@
         <v>4.1666146586423174E-6</v>
       </c>
     </row>
-    <row r="45" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P45" s="2">
         <v>0.42</v>
       </c>
@@ -15237,7 +15495,7 @@
         <v>5.0560007942578331E-6</v>
       </c>
     </row>
-    <row r="46" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P46" s="2">
         <v>0.43</v>
       </c>
@@ -15250,7 +15508,7 @@
         <v>6.1351628268931147E-6</v>
       </c>
     </row>
-    <row r="47" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P47" s="2">
         <v>0.44</v>
       </c>
@@ -15263,7 +15521,7 @@
         <v>7.4445948565205405E-6</v>
       </c>
     </row>
-    <row r="48" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P48" s="2">
         <v>0.45</v>
       </c>
@@ -15276,7 +15534,7 @@
         <v>9.0334315542193702E-6</v>
       </c>
     </row>
-    <row r="49" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P49" s="2">
         <v>0.46</v>
       </c>
@@ -15289,7 +15547,7 @@
         <v>1.0961291874447518E-5</v>
       </c>
     </row>
-    <row r="50" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P50" s="2">
         <v>0.47</v>
       </c>
@@ -15302,7 +15560,7 @@
         <v>1.3300516175908538E-5</v>
       </c>
     </row>
-    <row r="51" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P51" s="2">
         <v>0.48</v>
       </c>
@@ -15315,7 +15573,7 @@
         <v>1.6138880695957493E-5</v>
       </c>
     </row>
-    <row r="52" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P52" s="2">
         <v>0.49</v>
       </c>
@@ -15328,7 +15586,7 @@
         <v>1.958289123553721E-5</v>
       </c>
     </row>
-    <row r="53" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P53" s="2">
         <v>0.5</v>
       </c>
@@ -15341,7 +15599,7 @@
         <v>2.3761779645730403E-5</v>
       </c>
     </row>
-    <row r="54" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P54" s="2">
         <v>0.51</v>
       </c>
@@ -15354,7 +15612,7 @@
         <v>2.8832353078696171E-5</v>
       </c>
     </row>
-    <row r="55" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P55" s="2">
         <v>0.52</v>
       </c>
@@ -15367,7 +15625,7 @@
         <v>3.4984877964592713E-5</v>
       </c>
     </row>
-    <row r="56" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P56" s="2">
         <v>0.53</v>
       </c>
@@ -15380,7 +15638,7 @@
         <v>4.2450219502785518E-5</v>
       </c>
     </row>
-    <row r="57" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P57" s="2">
         <v>0.54</v>
       </c>
@@ -15393,7 +15651,7 @@
         <v>5.1508504567120658E-5</v>
       </c>
     </row>
-    <row r="58" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P58" s="2">
         <v>0.55000000000000004</v>
       </c>
@@ -15406,7 +15664,7 @@
         <v>6.2499633089101202E-5</v>
       </c>
     </row>
-    <row r="59" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P59" s="2">
         <v>0.56000000000000005</v>
       </c>
@@ -15419,7 +15677,7 @@
         <v>7.5836032344445383E-5</v>
       </c>
     </row>
-    <row r="60" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P60" s="2">
         <v>0.56999999999999995</v>
       </c>
@@ -15432,7 +15690,7 @@
         <v>9.2018132730429511E-5</v>
       </c>
     </row>
-    <row r="61" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P61" s="2">
         <v>0.57999999999999996</v>
       </c>
@@ -15445,7 +15703,7 @@
         <v>1.1165314574169192E-4</v>
       </c>
     </row>
-    <row r="62" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P62" s="2">
         <v>0.59</v>
       </c>
@@ -15458,7 +15716,7 @@
         <v>1.3547784876271406E-4</v>
       </c>
     </row>
-    <row r="63" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P63" s="2">
         <v>0.6</v>
       </c>
@@ -15471,7 +15729,7 @@
         <v>1.6438623164559399E-4</v>
       </c>
     </row>
-    <row r="64" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P64" s="2">
         <v>0.61</v>
       </c>
@@ -15484,7 +15742,7 @@
         <v>1.9946304247365736E-4</v>
       </c>
     </row>
-    <row r="65" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P65" s="2">
         <v>0.62</v>
       </c>
@@ -15497,7 +15755,7 @@
         <v>2.4202449127044915E-4</v>
       </c>
     </row>
-    <row r="66" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P66" s="2">
         <v>0.63</v>
       </c>
@@ -15510,7 +15768,7 @@
         <v>2.9366763900589454E-4</v>
       </c>
     </row>
-    <row r="67" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P67" s="2">
         <v>0.64</v>
       </c>
@@ -15523,7 +15781,7 @@
         <v>3.5633032515547928E-4</v>
       </c>
     </row>
-    <row r="68" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P68" s="2">
         <v>0.65</v>
       </c>
@@ -15536,7 +15794,7 @@
         <v>4.3236388251330002E-4</v>
       </c>
     </row>
-    <row r="69" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P69" s="2">
         <v>0.66</v>
       </c>
@@ -15549,7 +15807,7 @@
         <v>5.2462136778427457E-4</v>
       </c>
     </row>
-    <row r="70" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P70" s="2">
         <v>0.67</v>
       </c>
@@ -15562,7 +15820,7 @@
         <v>6.3656461868950918E-4</v>
       </c>
     </row>
-    <row r="71" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P71" s="2">
         <v>0.68</v>
       </c>
@@ -15575,7 +15833,7 @@
         <v>7.7239415475832771E-4</v>
       </c>
     </row>
-    <row r="72" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P72" s="2">
         <v>0.69</v>
       </c>
@@ -15588,7 +15846,7 @@
         <v>9.3720679615900331E-4</v>
       </c>
     </row>
-    <row r="73" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P73" s="2">
         <v>0.7</v>
       </c>
@@ -15601,7 +15859,7 @@
         <v>1.1371869150022702E-3</v>
       </c>
     </row>
-    <row r="74" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P74" s="2">
         <v>0.71</v>
       </c>
@@ -15614,7 +15872,7 @@
         <v>1.3798384955648457E-3</v>
       </c>
     </row>
-    <row r="75" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P75" s="2">
         <v>0.72</v>
       </c>
@@ -15627,7 +15885,7 @@
         <v>1.6742667111799326E-3</v>
       </c>
     </row>
-    <row r="76" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P76" s="2">
         <v>0.73</v>
       </c>
@@ -15640,7 +15898,7 @@
         <v>2.0315195835877782E-3</v>
       </c>
     </row>
-    <row r="77" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P77" s="2">
         <v>0.74</v>
       </c>
@@ -15653,7 +15911,7 @@
         <v>2.4650025450526874E-3</v>
       </c>
     </row>
-    <row r="78" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P78" s="2">
         <v>0.75</v>
       </c>
@@ -15666,7 +15924,7 @@
         <v>2.9909814591308642E-3</v>
       </c>
     </row>
-    <row r="79" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P79" s="2">
         <v>0.76</v>
       </c>
@@ -15679,7 +15937,7 @@
         <v>3.6291929752650526E-3</v>
       </c>
     </row>
-    <row r="80" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P80" s="2">
         <v>0.77</v>
       </c>
@@ -15692,7 +15950,7 @@
         <v>4.4035851199390498E-3</v>
       </c>
     </row>
-    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P81" s="2">
         <v>0.78</v>
       </c>
@@ -15705,7 +15963,7 @@
         <v>5.3432159140764371E-3</v>
       </c>
     </row>
-    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P82" s="2">
         <v>0.79</v>
       </c>
@@ -15718,7 +15976,7 @@
         <v>6.4833437360895876E-3</v>
       </c>
     </row>
-    <row r="83" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P83" s="2">
         <v>0.8</v>
       </c>
@@ -15731,7 +15989,7 @@
         <v>7.866750344981974E-3</v>
       </c>
     </row>
-    <row r="84" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P84" s="2">
         <v>0.81</v>
       </c>
@@ -15744,7 +16002,7 @@
         <v>9.5453462081614478E-3</v>
       </c>
     </row>
-    <row r="85" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P85" s="2">
         <v>0.82</v>
       </c>
@@ -15757,7 +16015,7 @@
         <v>1.1582118371725972E-2</v>
       </c>
     </row>
-    <row r="86" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P86" s="2">
         <v>0.83</v>
       </c>
@@ -15770,7 +16028,7 @@
         <v>1.4053493964427502E-2</v>
       </c>
     </row>
-    <row r="87" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P87" s="2">
         <v>0.84</v>
       </c>
@@ -15783,7 +16041,7 @@
         <v>1.7052208022612408E-2</v>
       </c>
     </row>
-    <row r="88" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P88" s="2">
         <v>0.85</v>
       </c>
@@ -15796,7 +16054,7 @@
         <v>2.0690783247402963E-2</v>
       </c>
     </row>
-    <row r="89" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P89" s="2">
         <v>0.86</v>
       </c>
@@ -15809,7 +16067,7 @@
         <v>2.510575226731453E-2</v>
       </c>
     </row>
-    <row r="90" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P90" s="2">
         <v>0.87</v>
       </c>
@@ -15822,7 +16080,7 @@
         <v>3.0462780841019745E-2</v>
       </c>
     </row>
-    <row r="91" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P91" s="2">
         <v>0.88</v>
       </c>
@@ -15835,7 +16093,7 @@
         <v>3.6962884241534426E-2</v>
       </c>
     </row>
-    <row r="92" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P92" s="2">
         <v>0.89</v>
       </c>
@@ -15848,7 +16106,7 @@
         <v>4.4849970083258646E-2</v>
       </c>
     </row>
-    <row r="93" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P93" s="2">
         <v>0.9</v>
       </c>
@@ -15861,7 +16119,7 @@
         <v>5.4419990626285879E-2</v>
       </c>
     </row>
-    <row r="94" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P94" s="2">
         <v>0.91</v>
       </c>
@@ -15874,7 +16132,7 @@
         <v>6.6032047985857045E-2</v>
       </c>
     </row>
-    <row r="95" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P95" s="2">
         <v>0.92</v>
       </c>
@@ -15887,7 +16145,7 @@
         <v>8.0121868954968339E-2</v>
       </c>
     </row>
-    <row r="96" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P96" s="2">
         <v>0.93</v>
       </c>
@@ -15900,7 +16158,7 @@
         <v>9.7218155064679693E-2</v>
       </c>
     </row>
-    <row r="97" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P97" s="2">
         <v>0.94</v>
       </c>
@@ -15913,7 +16171,7 @@
         <v>0.11796242139608826</v>
       </c>
     </row>
-    <row r="98" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P98" s="2">
         <v>0.95</v>
       </c>
@@ -15926,7 +16184,7 @@
         <v>0.14313306856863231</v>
       </c>
     </row>
-    <row r="99" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P99" s="2">
         <v>0.96</v>
       </c>
@@ -15939,7 +16197,7 @@
         <v>0.17367459117362488</v>
       </c>
     </row>
-    <row r="100" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P100" s="2">
         <v>0.97</v>
       </c>
@@ -15952,7 +16210,7 @@
         <v>0.21073301866009589</v>
       </c>
     </row>
-    <row r="101" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P101" s="2">
         <v>0.98</v>
       </c>
@@ -15965,7 +16223,7 @@
         <v>0.25569891854439109</v>
       </c>
     </row>
-    <row r="102" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P102" s="2">
         <v>0.99</v>
       </c>
@@ -15978,7 +16236,7 @@
         <v>0.31025957558097478</v>
       </c>
     </row>
-    <row r="103" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="16:18" x14ac:dyDescent="0.3">
       <c r="P103" s="2">
         <v>1</v>
       </c>
@@ -16004,15 +16262,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>198120</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:colOff>845820</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -16031,13 +16289,13 @@
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>144780</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>1143000</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -16059,9 +16317,9 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>151</v>
       </c>
@@ -16081,7 +16339,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>154</v>
       </c>
@@ -16101,7 +16359,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>9</v>
       </c>
@@ -16109,7 +16367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>147</v>
       </c>
@@ -16117,7 +16375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>174</v>
       </c>
@@ -16125,7 +16383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E10" s="39">
         <f>-1/F5</f>
         <v>-2.0000000000000001E-4</v>
@@ -16143,7 +16401,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E11" s="42">
         <v>0</v>
       </c>
@@ -16160,7 +16418,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E12" s="44">
         <f>1/C5+1/F5</f>
         <v>5.0200000000000002E-2</v>
@@ -16177,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="array" ref="E14:G16">MINVERSE(E10:G12)</f>
         <v>-4716.3493028909952</v>
@@ -16193,7 +16451,7 @@
         <v>-23.580804779072796</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>47.314577884487527</v>
       </c>
@@ -16207,7 +16465,7 @@
         <v>4.4033966430010709</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>-3.946169965345081E-2</v>
       </c>
@@ -16221,7 +16479,7 @@
         <v>4.1664692271534598</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="58">
         <f>(F5/F4)*(C9-C8)</f>
         <v>-25</v>
@@ -16240,9 +16498,9 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
+                <xdr:colOff>373380</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
@@ -16270,13 +16528,13 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I3">
         <v>3000</v>
       </c>
@@ -16294,7 +16552,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -16319,7 +16577,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>132</v>
       </c>
@@ -16338,7 +16596,7 @@
         <v>1.6666666666666666E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>133</v>
       </c>
@@ -16357,7 +16615,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I7">
         <v>1000</v>
       </c>
@@ -16369,7 +16627,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>C4+C5</f>
         <v>1.5E-3</v>
@@ -16386,7 +16644,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>-C5</f>
         <v>-5.0000000000000001E-4</v>
@@ -16418,7 +16676,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>-C4</f>
         <v>-1E-3</v>
@@ -16450,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J12">
         <v>0</v>
       </c>
@@ -16467,7 +16725,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="array" ref="C14:E16">MINVERSE(C9:E11)</f>
         <v>2428.571428571428</v>
@@ -16483,7 +16741,7 @@
         <v>5.428571428571427</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>999.99999999999966</v>
       </c>
@@ -16511,7 +16769,7 @@
         <v>13.454545454545453</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>2142.8571428571422</v>
       </c>
@@ -16537,7 +16795,7 @@
         <v>4.3636363636363642</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J17">
         <v>181.81818181818184</v>
       </c>
@@ -16551,7 +16809,7 @@
         <v>2.7878787878787881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -16589,7 +16847,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -16627,7 +16885,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -16660,7 +16918,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -16678,7 +16936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -16704,7 +16962,7 @@
         <v>-0.67567567567567566</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>9.0090090090090095E-6</v>
       </c>
@@ -16722,7 +16980,7 @@
         <v>0.46846846846846846</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>3.6036036036036038E-5</v>
       </c>
@@ -16752,7 +17010,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J28">
         <f>-K23</f>
         <v>-5.0000000000000001E-4</v>
@@ -16766,7 +17024,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J31">
         <f t="array" ref="J31:K32">MINVERSE(J27:K28)</f>
         <v>1200</v>
@@ -16779,7 +17037,7 @@
         <v>0.80000000000000027</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>400</v>
       </c>
@@ -16803,9 +17061,9 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>151</v>
       </c>
@@ -16820,7 +17078,7 @@
       </c>
       <c r="G3" s="52"/>
     </row>
-    <row r="4" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>154</v>
       </c>
@@ -16835,7 +17093,7 @@
       </c>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>9</v>
       </c>
@@ -16849,7 +17107,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>177</v>
       </c>
@@ -16861,7 +17119,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>174</v>
       </c>
@@ -16869,7 +17127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E10" s="39">
         <f>1/C4+1/F4</f>
         <v>5.0200000000000002E-2</v>
@@ -16890,7 +17148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E11" s="42">
         <f>-1/F4</f>
         <v>-2.0000000000000001E-4</v>
@@ -16912,7 +17170,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E12" s="42">
         <v>0</v>
       </c>
@@ -16934,7 +17192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E13" s="44">
         <v>0</v>
       </c>
@@ -16955,7 +17213,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="E15">
         <f t="array" ref="E15:H18">MINVERSE(E10:H13)</f>
         <v>1.9726014029628289</v>
@@ -16981,7 +17239,7 @@
         <v>-9.6222788732781108</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>0.18020229000585344</v>
       </c>
@@ -17005,7 +17263,7 @@
         <v>1.0966515459495503</v>
       </c>
     </row>
-    <row r="17" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="E17">
         <v>9.5636515689151349E-4</v>
       </c>
@@ -17029,7 +17287,7 @@
         <v>2.8031295165396668</v>
       </c>
     </row>
-    <row r="18" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>-8.8474367871054255E-2</v>
       </c>
@@ -17072,9 +17330,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>251460</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -17096,15 +17354,15 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
@@ -17115,7 +17373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
@@ -17133,7 +17391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
@@ -17159,11 +17417,11 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G4" s="4"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
@@ -17181,7 +17439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
@@ -17199,22 +17457,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>23</v>
       </c>
@@ -17234,11 +17492,11 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>83820</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
+                <xdr:colOff>601980</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -17257,15 +17515,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>30480</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:colOff>563880</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -17290,7 +17548,7 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>106680</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -17312,13 +17570,13 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
@@ -17347,7 +17605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
@@ -17373,7 +17631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
@@ -17391,7 +17649,7 @@
         <v>26.923076923076923</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.4">
       <c r="E6" s="16" t="s">
         <v>34</v>
       </c>
@@ -17400,7 +17658,7 @@
         <v>28.076923076923077</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
@@ -17409,7 +17667,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -17417,13 +17675,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="L10" s="17">
         <f>(F6-F5)/B7</f>
         <v>1.6646481241026494</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>39</v>
       </c>
@@ -17432,12 +17690,12 @@
         <v>9.4616475818645175E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="7:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>40</v>
       </c>
@@ -17449,7 +17707,7 @@
         <v>4.328085122666888E-2</v>
       </c>
     </row>
-    <row r="19" spans="7:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
         <v>42</v>
       </c>
@@ -17468,23 +17726,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
@@ -17501,7 +17759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -17532,7 +17790,7 @@
         <v>0.11973442483569038</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="E6" s="7">
         <v>100</v>
       </c>
@@ -17554,7 +17812,7 @@
         <v>0.23946884967138077</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="D8" s="20" t="s">
         <v>46</v>
       </c>
@@ -17582,7 +17840,7 @@
         <v>3.0564906574910188E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="D10" s="20" t="s">
         <v>47</v>
       </c>
@@ -17610,12 +17868,12 @@
         <v>3.4727127373934082E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>28</v>
       </c>
@@ -17643,7 +17901,7 @@
         <v>9.747967165471425E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="G15" s="16" t="s">
         <v>45</v>
       </c>
@@ -17658,7 +17916,7 @@
         <v>4.4481870586889081E-12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="G16" s="16" t="s">
         <v>45</v>
       </c>
@@ -17673,17 +17931,17 @@
         <v>2.0298140601101118E-15</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C18" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B20" s="10" t="s">
         <v>51</v>
       </c>
@@ -17694,7 +17952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K21" s="21" t="s">
         <v>55</v>
       </c>
@@ -17705,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J22" s="2" t="s">
         <v>53</v>
       </c>
@@ -17721,7 +17979,7 @@
         <v>1.8021826694558575E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
@@ -17740,7 +17998,7 @@
         <v>5.9867212417845192E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J25" s="23" t="s">
         <v>57</v>
       </c>
@@ -17752,22 +18010,22 @@
         <v>1.670363391935584</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K26" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="J30" s="16" t="s">
         <v>8</v>
       </c>
@@ -17775,7 +18033,7 @@
         <v>9.747967165471425E-9</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="I32" s="2" t="s">
         <v>183</v>
       </c>
@@ -17783,7 +18041,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I33" s="2"/>
       <c r="J33">
         <v>1</v>
@@ -17795,223 +18053,223 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I34" s="2">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J34" s="69">
-        <f t="shared" ref="J34:L45" si="0">$K$30*(EXP($I34/(J$33*$B$4))+1)</f>
-        <v>1.949593433094285E-8</v>
+        <f>$K$30*(EXP($I34/(J$33*$B$4))-1)</f>
+        <v>2.0669920621115863E-9</v>
       </c>
       <c r="K34" s="69">
-        <f t="shared" si="0"/>
-        <v>1.949593433094285E-8</v>
+        <f>$K$30*(EXP($I34/(K$33*$B$4))-1)</f>
+        <v>1.1897058945978716E-9</v>
       </c>
       <c r="L34" s="69">
-        <f t="shared" si="0"/>
-        <v>1.949593433094285E-8</v>
-      </c>
-      <c r="M34" s="71"/>
-    </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+        <f>$K$30*(EXP($I34/(L$33*$B$4))-1)</f>
+        <v>9.8384696876807993E-10</v>
+      </c>
+      <c r="M34" s="70"/>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I35" s="2">
         <v>0.05</v>
       </c>
       <c r="J35" s="69">
-        <f t="shared" si="0"/>
-        <v>7.6443347521892064E-8</v>
+        <f t="shared" ref="J35:L45" si="0">$K$30*(EXP($I35/(J$33*$B$4))-1)</f>
+        <v>5.6947413190949221E-8</v>
       </c>
       <c r="K35" s="69">
         <f t="shared" si="0"/>
-        <v>4.0581469443822234E-8</v>
+        <v>2.1085535112879384E-8</v>
       </c>
       <c r="L35" s="69">
         <f t="shared" si="0"/>
-        <v>3.524589605789358E-8</v>
-      </c>
-      <c r="M35" s="71"/>
-    </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+        <v>1.5749961726950727E-8</v>
+      </c>
+      <c r="M35" s="70"/>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
         <v>0.1</v>
       </c>
       <c r="J36" s="69">
         <f t="shared" si="0"/>
-        <v>4.6607631597690245E-7</v>
+        <v>4.4658038164595958E-7</v>
       </c>
       <c r="K36" s="69">
         <f t="shared" si="0"/>
-        <v>1.0727649250935908E-7</v>
+        <v>8.7780558178416236E-8</v>
       </c>
       <c r="L36" s="69">
         <f t="shared" si="0"/>
-        <v>7.6443347521892064E-8</v>
-      </c>
-      <c r="M36" s="71"/>
-    </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+        <v>5.6947413190949221E-8</v>
+      </c>
+      <c r="M36" s="70"/>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I37" s="2">
         <v>0.15</v>
       </c>
       <c r="J37" s="69">
         <f t="shared" si="0"/>
-        <v>3.1319366527409099E-6</v>
+        <v>3.1124407184099671E-6</v>
       </c>
       <c r="K37" s="69">
         <f t="shared" si="0"/>
-        <v>3.1823751758647181E-7</v>
+        <v>2.9874158325552899E-7</v>
       </c>
       <c r="L37" s="69">
         <f t="shared" si="0"/>
-        <v>1.8420424475786924E-7</v>
-      </c>
-      <c r="M37" s="71"/>
-    </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+        <v>1.647083104269264E-7</v>
+      </c>
+      <c r="M37" s="70"/>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I38" s="2">
         <v>0.2</v>
       </c>
       <c r="J38" s="69">
         <f t="shared" si="0"/>
-        <v>2.1371695375704625E-5</v>
+        <v>2.1352199441373682E-5</v>
       </c>
       <c r="K38" s="69">
         <f t="shared" si="0"/>
-        <v>9.8552200233512447E-7</v>
+        <v>9.6602606800418144E-7</v>
       </c>
       <c r="L38" s="69">
         <f t="shared" si="0"/>
-        <v>4.6607631597690245E-7</v>
-      </c>
-      <c r="M38" s="71"/>
-    </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+        <v>4.4658038164595958E-7</v>
+      </c>
+      <c r="M38" s="70"/>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I39" s="2">
         <v>0.25</v>
       </c>
       <c r="J39" s="69">
         <f t="shared" si="0"/>
-        <v>1.4616772976802726E-4</v>
+        <v>1.461482338336963E-4</v>
       </c>
       <c r="K39" s="69">
         <f t="shared" si="0"/>
-        <v>3.0961895221934238E-6</v>
+        <v>3.076693587862481E-6</v>
       </c>
       <c r="L39" s="69">
         <f t="shared" si="0"/>
-        <v>1.2033740424362703E-6</v>
-      </c>
-      <c r="M39" s="71"/>
-    </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+        <v>1.1838781081053275E-6</v>
+      </c>
+      <c r="M39" s="70"/>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I40" s="2">
         <v>0.3</v>
       </c>
       <c r="J40" s="69">
         <f t="shared" si="0"/>
-        <v>1.0000194959343309E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="K40" s="69">
         <f t="shared" si="0"/>
-        <v>9.772378585787237E-6</v>
+        <v>9.7528826514562942E-6</v>
       </c>
       <c r="L40" s="69">
         <f t="shared" si="0"/>
-        <v>3.1319366527409099E-6</v>
-      </c>
-      <c r="M40" s="71"/>
-    </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+        <v>3.1124407184099671E-6</v>
+      </c>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I41" s="2">
         <v>0.35</v>
       </c>
       <c r="J41" s="69">
         <f t="shared" si="0"/>
-        <v>6.8420547988619308E-3</v>
+        <v>6.8420353029276003E-3</v>
       </c>
       <c r="K41" s="69">
         <f t="shared" si="0"/>
-        <v>3.0889631773935964E-5</v>
+        <v>3.0870135839605021E-5</v>
       </c>
       <c r="L41" s="69">
         <f t="shared" si="0"/>
-        <v>8.1765117387458909E-6</v>
-      </c>
-      <c r="M41" s="71"/>
-    </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+        <v>8.157015804414948E-6</v>
+      </c>
+      <c r="M41" s="70"/>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I42" s="2">
         <v>0.4</v>
       </c>
       <c r="J42" s="69">
         <f t="shared" si="0"/>
-        <v>4.6813133893643728E-2</v>
+        <v>4.6813114397709396E-2</v>
       </c>
       <c r="K42" s="69">
         <f t="shared" si="0"/>
-        <v>9.7684981331087092E-5</v>
+        <v>9.7665485396756149E-5</v>
       </c>
       <c r="L42" s="69">
         <f t="shared" si="0"/>
-        <v>2.1371695375704625E-5</v>
-      </c>
-      <c r="M42" s="71"/>
-    </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+        <v>2.1352199441373682E-5</v>
+      </c>
+      <c r="M42" s="70"/>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I43" s="2">
         <v>0.45</v>
       </c>
-      <c r="J43" s="70">
+      <c r="J43" s="69">
         <f t="shared" si="0"/>
-        <v>0.32029439190669523</v>
+        <v>0.32029437241076086</v>
       </c>
       <c r="K43" s="69">
         <f t="shared" si="0"/>
-        <v>3.0896334612172773E-4</v>
+        <v>3.0894385018739683E-4</v>
       </c>
       <c r="L43" s="69">
         <f t="shared" si="0"/>
-        <v>5.588656892691798E-5</v>
-      </c>
-      <c r="M43" s="71"/>
-    </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+        <v>5.5867072992587037E-5</v>
+      </c>
+      <c r="M43" s="70"/>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I44" s="2">
         <v>0.5</v>
       </c>
-      <c r="J44" s="70">
+      <c r="J44" s="71">
         <f t="shared" si="0"/>
-        <v>2.1914472398708376</v>
+        <v>2.1914472203749034</v>
       </c>
       <c r="K44" s="69">
         <f t="shared" si="0"/>
-        <v>9.7725159859076349E-4</v>
+        <v>9.7723210265643259E-4</v>
       </c>
       <c r="L44" s="69">
         <f t="shared" si="0"/>
-        <v>1.4616772976802726E-4</v>
-      </c>
-      <c r="M44" s="71"/>
-    </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+        <v>1.461482338336963E-4</v>
+      </c>
+      <c r="M44" s="70"/>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I45" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J45" s="70">
+      <c r="J45" s="71">
         <f t="shared" si="0"/>
-        <v>14.993834525500707</v>
+        <v>14.993834506004774</v>
       </c>
       <c r="K45" s="69">
         <f t="shared" si="0"/>
-        <v>3.0910941059893418E-3</v>
+        <v>3.0910746100550105E-3</v>
       </c>
       <c r="L45" s="69">
         <f t="shared" si="0"/>
-        <v>3.8231774754874612E-4</v>
-      </c>
-      <c r="M45" s="71">
+        <v>3.8229825161441517E-4</v>
+      </c>
+      <c r="M45" s="70">
         <f>LOG10(J45)</f>
-        <v>1.1759127135890257</v>
+        <v>1.1759127130243285</v>
       </c>
     </row>
   </sheetData>
@@ -18033,9 +18291,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:colOff>137160</xdr:colOff>
                 <xdr:row>35</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -18057,19 +18315,19 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -18080,7 +18338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -18102,7 +18360,7 @@
         <v>510095540.42730534</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
@@ -18121,7 +18379,7 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -18132,7 +18390,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -18146,12 +18404,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -18162,7 +18420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -18187,7 +18445,7 @@
         <v>0.29933632208792593</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -18205,7 +18463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -18213,12 +18471,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="F16" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -18250,7 +18508,7 @@
         <v>4.4362891532415388E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -18282,7 +18540,7 @@
         <v>5.5640942051633313E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
@@ -18298,7 +18556,7 @@
         <v>1.0000383358404869E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
@@ -18312,7 +18570,7 @@
         <v>0.55640942051633313</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="F21" s="21" t="s">
         <v>29</v>
       </c>
@@ -18328,12 +18586,12 @@
         <v>0.27820471025816657</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B23" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>65</v>
       </c>
@@ -18354,7 +18612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="F26" s="20" t="s">
         <v>28</v>
       </c>
@@ -18363,7 +18621,7 @@
         <v>4.6606404783148311E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="F27" s="20" t="s">
         <v>66</v>
       </c>
@@ -18372,7 +18630,7 @@
         <v>3.3935409276567621E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F28" s="4" t="s">
         <v>65</v>
       </c>
@@ -18381,7 +18639,7 @@
         <v>4.9999945710805073E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.2" x14ac:dyDescent="0.35">
       <c r="F29" s="21" t="s">
         <v>69</v>
       </c>
@@ -18400,10 +18658,10 @@
         <v>0.68053559257813667</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>71</v>
       </c>
@@ -18426,14 +18684,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -18444,7 +18702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -18469,7 +18727,7 @@
         <v>1.1346230359332438E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -18477,7 +18735,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -18495,7 +18753,7 @@
         <v>4.5371840999146791</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -18513,7 +18771,7 @@
         <v>9.0743681998293582</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="F10" s="21" t="s">
         <v>81</v>
       </c>
@@ -18521,7 +18779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -18538,7 +18796,7 @@
         <v>4.9065622363565486E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -18555,7 +18813,7 @@
         <v>-5.4239522327690359E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -18564,12 +18822,12 @@
         <v>2.2692460718664875E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B17" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F18" s="9" t="s">
         <v>85</v>
       </c>
@@ -18578,7 +18836,7 @@
         <v>1.6264117167541401E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F19" s="9" t="s">
         <v>87</v>
       </c>
@@ -18587,7 +18845,7 @@
         <v>9.7198186425782977E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>2</v>
       </c>
@@ -18596,7 +18854,7 @@
         <v>61.7295468221661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>89</v>
       </c>
@@ -18605,7 +18863,7 @@
         <v>31.652227327660366</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -18613,7 +18871,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>88</v>
       </c>
@@ -18636,27 +18894,27 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -18664,7 +18922,7 @@
         <v>1.6722408026755855</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
@@ -18675,7 +18933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -18683,7 +18941,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -18691,12 +18949,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A22" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="E23" s="4" t="s">
         <v>97</v>
       </c>
@@ -18707,7 +18965,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>93</v>
       </c>
@@ -18727,7 +18985,7 @@
         <v>8.9999999999913367</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A26" s="14" t="s">
         <v>100</v>
       </c>
@@ -18736,12 +18994,12 @@
         <v>3.6265653580610757</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B29" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -18749,7 +19007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>104</v>
       </c>
@@ -18764,7 +19022,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>105</v>
       </c>
@@ -18779,7 +19037,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -18787,7 +19045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -18795,7 +19053,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="D37" s="4" t="s">
         <v>102</v>
       </c>
@@ -18809,7 +19067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>93</v>
       </c>
@@ -18847,19 +19105,19 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -18867,7 +19125,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -18878,7 +19136,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
         <v>122</v>
       </c>
@@ -18886,13 +19144,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
       <c r="C5" s="47" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>120</v>
       </c>
@@ -18900,7 +19158,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -18908,8 +19166,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="G10" s="4" t="s">
         <v>106</v>
       </c>
@@ -18929,7 +19187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="G11" s="4" t="s">
         <v>107</v>
       </c>
@@ -18955,7 +19213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G12" s="4" t="s">
         <v>108</v>
       </c>
@@ -18978,14 +19236,14 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G13" s="4"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.4">
       <c r="G15" s="4" t="s">
         <v>109</v>
       </c>
@@ -19010,7 +19268,7 @@
         <v>-499999.99924999988</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="G16" s="4" t="s">
         <v>110</v>
       </c>
@@ -19036,7 +19294,7 @@
         <v>-1.4999999977499999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="J17" s="44">
         <v>-0.49999999975000003</v>
       </c>
@@ -19053,17 +19311,17 @@
         <v>-500000.00074999995</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -19083,12 +19341,12 @@
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -19096,7 +19354,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -19116,7 +19374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -19136,7 +19394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D11" s="54" t="s">
         <v>164</v>
       </c>
@@ -19152,7 +19410,7 @@
         <v>1996.0079840319358</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -19160,7 +19418,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -19180,7 +19438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>148</v>
       </c>
@@ -19192,7 +19450,7 @@
         <v>665.33599467731187</v>
       </c>
     </row>
-    <row r="18" spans="5:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="I18" s="52" t="s">
         <v>151</v>
       </c>
@@ -19200,7 +19458,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="5:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="E19" s="57">
         <f>1/(1+J18/(J19+J20*J18))</f>
         <v>0.99009901186158167</v>
@@ -19212,7 +19470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="I20" s="52" t="s">
         <v>149</v>
       </c>
@@ -19220,13 +19478,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E25" s="57">
         <f>1/(1+1/J20)</f>
         <v>0.99009900990099009</v>
       </c>
     </row>
-    <row r="39" spans="8:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="H39" s="52" t="s">
         <v>151</v>
       </c>
@@ -19240,7 +19498,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="8:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="H40" s="52" t="s">
         <v>154</v>
       </c>
@@ -19254,7 +19512,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="8:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:16" ht="16.2" x14ac:dyDescent="0.35">
       <c r="H41" s="52" t="s">
         <v>147</v>
       </c>
@@ -19262,7 +19520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H42" s="52" t="s">
         <v>9</v>
       </c>
@@ -19273,7 +19531,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H44" s="39">
         <f>-1/L40</f>
         <v>-2.0000000000000001E-4</v>
@@ -19298,7 +19556,7 @@
         <v>-4.716125966349284</v>
       </c>
     </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H45" s="44">
         <f>1/L40+1/I40</f>
         <v>5.0200000000000002E-2</v>
@@ -19320,7 +19578,7 @@
         <v>4.7351798774097779E-2</v>
       </c>
     </row>
-    <row r="49" spans="8:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="H49" s="52" t="s">
         <v>151</v>
       </c>
@@ -19334,7 +19592,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="8:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="H50" s="52" t="s">
         <v>154</v>
       </c>
@@ -19348,7 +19606,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="8:18" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:18" ht="16.2" x14ac:dyDescent="0.35">
       <c r="H51" s="52" t="s">
         <v>147</v>
       </c>
@@ -19356,7 +19614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H52" s="52" t="s">
         <v>9</v>
       </c>
@@ -19364,7 +19622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:18" x14ac:dyDescent="0.3">
       <c r="P53" t="s">
         <v>170</v>
       </c>
@@ -19372,7 +19630,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H55">
         <f>-1/L50</f>
         <v>-2.0000000000000001E-4</v>
@@ -19401,7 +19659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H56">
         <f>1/I50+1/L50</f>
         <v>5.0200000000000002E-2</v>
@@ -19424,12 +19682,12 @@
         <v>0.94322094916841326</v>
       </c>
     </row>
-    <row r="57" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:18" x14ac:dyDescent="0.3">
       <c r="R57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:18" x14ac:dyDescent="0.3">
       <c r="L59" t="s">
         <v>173</v>
       </c>
@@ -19442,7 +19700,7 @@
         <v>-5.682636670727851E-2</v>
       </c>
     </row>
-    <row r="61" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:18" x14ac:dyDescent="0.3">
       <c r="M61">
         <f>-1/(1+I52*M59)</f>
         <v>-5.6603773584905669E-2</v>
@@ -19461,15 +19719,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:colOff>220980</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19492,9 +19750,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:colOff>160020</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>121920</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19517,9 +19775,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:colOff>274320</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19536,15 +19794,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>22860</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:colOff>289560</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19561,15 +19819,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>22860</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>106680</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>541020</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -19588,7 +19846,7 @@
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
@@ -19611,15 +19869,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>594360</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>144780</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>99060</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
